--- a/对比/架构优化_160220 - 副本.xlsx
+++ b/对比/架构优化_160220 - 副本.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="6"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="算法分析" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>AES</t>
   </si>
@@ -191,6 +191,90 @@
     <t>4*LUT256*8</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>功能单元</t>
+  </si>
+  <si>
+    <r>
+      <t>面积</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>µm</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <t>等效门数</t>
+  </si>
+  <si>
+    <t>相对值</t>
+  </si>
+  <si>
+    <t>移位单元</t>
+  </si>
+  <si>
+    <r>
+      <t>模加</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>减单元</t>
+    </r>
+  </si>
+  <si>
+    <t>逻辑运算</t>
+  </si>
+  <si>
+    <t>有限域乘法</t>
+  </si>
+  <si>
+    <t>置换单元</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -201,7 +285,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -248,6 +332,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -269,7 +373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -342,6 +446,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -349,7 +505,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -440,6 +596,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -946,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1237,7 +1417,7 @@
         <v>12797.75</v>
       </c>
       <c r="G9" s="7">
-        <f t="shared" ref="G9:K10" si="6">G4</f>
+        <f t="shared" ref="G9:I9" si="6">G4</f>
         <v>8000</v>
       </c>
       <c r="H9" s="7">
@@ -1281,13 +1461,165 @@
         <v>0</v>
       </c>
       <c r="I10" s="7">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J10" s="7">
         <v>28253</v>
       </c>
       <c r="K10" s="7">
         <v>47918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="35">
+        <f>B10/$B10</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="35">
+        <f t="shared" ref="C11:K11" si="7">C10/$B10</f>
+        <v>1.1842271293375395</v>
+      </c>
+      <c r="D11" s="35">
+        <f t="shared" si="7"/>
+        <v>4.4574132492113563</v>
+      </c>
+      <c r="E11" s="35">
+        <f t="shared" si="7"/>
+        <v>0.25173501577287066</v>
+      </c>
+      <c r="F11" s="35">
+        <f t="shared" si="7"/>
+        <v>8.0742902208201901</v>
+      </c>
+      <c r="G11" s="35">
+        <f t="shared" si="7"/>
+        <v>5.3665615141955838</v>
+      </c>
+      <c r="H11" s="35">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="35">
+        <f t="shared" si="7"/>
+        <v>0.25236593059936907</v>
+      </c>
+      <c r="J11" s="35">
+        <f t="shared" si="7"/>
+        <v>17.825236593059937</v>
+      </c>
+      <c r="K11" s="35">
+        <f t="shared" si="7"/>
+        <v>30.23217665615142</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="39">
+        <v>19286</v>
+      </c>
+      <c r="C13" s="41">
+        <f>B13/10</f>
+        <v>1928.6</v>
+      </c>
+      <c r="D13" s="42">
+        <f>C13/C$13</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="39">
+        <v>12826</v>
+      </c>
+      <c r="C14" s="41">
+        <f t="shared" ref="C14:C18" si="8">B14/10</f>
+        <v>1282.5999999999999</v>
+      </c>
+      <c r="D14" s="42">
+        <f t="shared" ref="D14:D18" si="9">C14/C$13</f>
+        <v>0.66504199937778696</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3426</v>
+      </c>
+      <c r="C15" s="41">
+        <f t="shared" si="8"/>
+        <v>342.6</v>
+      </c>
+      <c r="D15" s="42">
+        <f t="shared" si="9"/>
+        <v>0.17764181271388574</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="39">
+        <v>85473</v>
+      </c>
+      <c r="C16" s="41">
+        <f t="shared" si="8"/>
+        <v>8547.2999999999993</v>
+      </c>
+      <c r="D16" s="42">
+        <f t="shared" si="9"/>
+        <v>4.4318676760344289</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="38" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="39">
+        <v>49816</v>
+      </c>
+      <c r="C17" s="41">
+        <f t="shared" si="8"/>
+        <v>4981.6000000000004</v>
+      </c>
+      <c r="D17" s="42">
+        <f t="shared" si="9"/>
+        <v>2.5830135849839264</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="39">
+        <v>1160372</v>
+      </c>
+      <c r="C18" s="41">
+        <f t="shared" si="8"/>
+        <v>116037.2</v>
+      </c>
+      <c r="D18" s="42">
+        <f t="shared" si="9"/>
+        <v>60.166545680804731</v>
       </c>
     </row>
   </sheetData>
@@ -1298,6 +1630,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4540,7 +4873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>

--- a/对比/架构优化_160220 - 副本.xlsx
+++ b/对比/架构优化_160220 - 副本.xlsx
@@ -585,18 +585,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -620,6 +608,18 @@
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1129,7 +1129,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:D18"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1184,7 +1184,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
@@ -1221,7 +1221,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="7">
         <f>B2/$B2</f>
         <v>1</v>
@@ -1264,7 +1264,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="39" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="7">
@@ -1301,7 +1301,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="7">
         <f>B4/$B4</f>
         <v>1</v>
@@ -1344,7 +1344,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="39" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
@@ -1369,7 +1369,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="7">
         <f>B6/$B6</f>
         <v>1</v>
@@ -1471,153 +1471,153 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="35">
+      <c r="B11" s="31">
         <f>B10/$B10</f>
         <v>1</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="31">
         <f t="shared" ref="C11:K11" si="7">C10/$B10</f>
         <v>1.1842271293375395</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="31">
         <f t="shared" si="7"/>
         <v>4.4574132492113563</v>
       </c>
-      <c r="E11" s="35">
+      <c r="E11" s="31">
         <f t="shared" si="7"/>
         <v>0.25173501577287066</v>
       </c>
-      <c r="F11" s="35">
+      <c r="F11" s="31">
         <f t="shared" si="7"/>
         <v>8.0742902208201901</v>
       </c>
-      <c r="G11" s="35">
+      <c r="G11" s="31">
         <f t="shared" si="7"/>
         <v>5.3665615141955838</v>
       </c>
-      <c r="H11" s="35">
+      <c r="H11" s="31">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="I11" s="35">
+      <c r="I11" s="31">
         <f t="shared" si="7"/>
         <v>0.25236593059936907</v>
       </c>
-      <c r="J11" s="35">
+      <c r="J11" s="31">
         <f t="shared" si="7"/>
         <v>17.825236593059937</v>
       </c>
-      <c r="K11" s="35">
+      <c r="K11" s="31">
         <f t="shared" si="7"/>
         <v>30.23217665615142</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="37" t="s">
+      <c r="B12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="38" t="s">
+      <c r="A13" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="39">
+      <c r="B13" s="35">
         <v>19286</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="37">
         <f>B13/10</f>
         <v>1928.6</v>
       </c>
-      <c r="D13" s="42">
+      <c r="D13" s="38">
         <f>C13/C$13</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="34" t="s">
         <v>43</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="35">
         <v>12826</v>
       </c>
-      <c r="C14" s="41">
+      <c r="C14" s="37">
         <f t="shared" ref="C14:C18" si="8">B14/10</f>
         <v>1282.5999999999999</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="38">
         <f t="shared" ref="D14:D18" si="9">C14/C$13</f>
         <v>0.66504199937778696</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
+      <c r="A15" s="34" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2">
         <v>3426</v>
       </c>
-      <c r="C15" s="41">
+      <c r="C15" s="37">
         <f t="shared" si="8"/>
         <v>342.6</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="38">
         <f t="shared" si="9"/>
         <v>0.17764181271388574</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="35">
         <v>85473</v>
       </c>
-      <c r="C16" s="41">
+      <c r="C16" s="37">
         <f t="shared" si="8"/>
         <v>8547.2999999999993</v>
       </c>
-      <c r="D16" s="42">
+      <c r="D16" s="38">
         <f t="shared" si="9"/>
         <v>4.4318676760344289</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="39">
+      <c r="B17" s="35">
         <v>49816</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="37">
         <f t="shared" si="8"/>
         <v>4981.6000000000004</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="38">
         <f t="shared" si="9"/>
         <v>2.5830135849839264</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="40" t="s">
+      <c r="A18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="35">
         <v>1160372</v>
       </c>
-      <c r="C18" s="41">
+      <c r="C18" s="37">
         <f t="shared" si="8"/>
         <v>116037.2</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="38">
         <f t="shared" si="9"/>
         <v>60.166545680804731</v>
       </c>
@@ -1691,7 +1691,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1722,7 +1722,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1751,7 +1751,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="41"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +1780,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +1809,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="41"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="32"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -1856,7 +1856,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="39" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1887,7 +1887,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
+      <c r="A9" s="41"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1916,7 +1916,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="32"/>
+      <c r="A10" s="40"/>
       <c r="B10" s="21" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1934,7 +1934,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -1967,7 +1967,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1985,7 +1985,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="42" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5"/>
@@ -2018,7 +2018,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="34"/>
+      <c r="A14" s="42"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2101,7 +2101,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="31" t="str">
+      <c r="A2" s="39" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2147,7 +2147,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="32"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="29">
         <f>B2/$K2</f>
         <v>0.11901856614541291</v>
@@ -2187,7 +2187,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="31" t="str">
+      <c r="A4" s="39" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2233,7 +2233,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="32"/>
+      <c r="A5" s="40"/>
       <c r="B5" s="29">
         <f>B4/$K4</f>
         <v>6.2281216962292961E-2</v>
@@ -2273,7 +2273,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="31" t="str">
+      <c r="A6" s="39" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -2319,7 +2319,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="32"/>
+      <c r="A7" s="40"/>
       <c r="B7" s="29">
         <f>B6/$K6</f>
         <v>2.3777010922087911E-2</v>
@@ -2359,7 +2359,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="42" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2405,7 +2405,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="29">
         <f>B8/$K8</f>
         <v>4.7001462701121405E-2</v>
@@ -2503,7 +2503,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="34" t="str">
+      <c r="A2" s="42" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2532,7 +2532,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="34"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="5" t="str">
         <f>架构比较!B3</f>
         <v>T2</v>
@@ -2558,7 +2558,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="34"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="5" t="str">
         <f>架构比较!B4</f>
         <v>T3</v>
@@ -2584,7 +2584,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="34"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5" t="str">
         <f>架构比较!B5</f>
         <v>T4</v>
@@ -2610,7 +2610,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="34"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5" t="str">
         <f>架构比较!B6</f>
         <v>T5</v>
@@ -2636,7 +2636,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="34"/>
+      <c r="A7" s="42"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -2661,7 +2661,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="34" t="str">
+      <c r="A8" s="42" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2689,7 +2689,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="34"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5" t="str">
         <f>架构比较!B9</f>
         <v>T2</v>
@@ -2714,7 +2714,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="34"/>
+      <c r="A10" s="42"/>
       <c r="B10" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2739,7 +2739,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="str">
+      <c r="A11" s="39" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -2766,7 +2766,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="32"/>
+      <c r="A12" s="40"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2791,7 +2791,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="31" t="str">
+      <c r="A13" s="39" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2818,7 +2818,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="32"/>
+      <c r="A14" s="40"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>

--- a/对比/架构优化_160220 - 副本.xlsx
+++ b/对比/架构优化_160220 - 副本.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
   <si>
     <t>AES</t>
   </si>
@@ -228,6 +228,31 @@
     <t>移位单元</t>
   </si>
   <si>
+    <t>有限域乘法</t>
+  </si>
+  <si>
+    <t>置换单元</t>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+  </si>
+  <si>
+    <t>功能单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <t>模加</t>
     </r>
@@ -250,15 +275,63 @@
       </rPr>
       <t>减单元</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>逻辑运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>有限域乘法</t>
+    <t>逻辑运算</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>置换单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限域乘法单元</t>
+  </si>
+  <si>
+    <t>互连单元</t>
+  </si>
+  <si>
+    <t>S盒子替换单元</t>
+  </si>
+  <si>
+    <t>字节循环移位</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>延迟</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术</t>
+  </si>
+  <si>
+    <t>单元</t>
+  </si>
+  <si>
+    <t>移位</t>
+  </si>
+  <si>
+    <t>置换</t>
+  </si>
+  <si>
+    <t>逻辑</t>
   </si>
   <si>
     <r>
@@ -266,7 +339,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="10.5"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -274,6 +347,63 @@
       </rPr>
       <t>盒</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>AES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法包含操作</t>
+    </r>
+  </si>
+  <si>
+    <t>架构包含功能单元</t>
+  </si>
+  <si>
+    <t>利用率</t>
+  </si>
+  <si>
+    <t>综合</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DES</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法包含操作</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SPECK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>算法包含操作</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -285,7 +415,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +482,19 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -373,7 +516,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -498,6 +641,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -505,7 +672,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -609,6 +776,9 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -620,6 +790,36 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1126,16 +1326,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
-    <col min="2" max="5" width="9" style="2"/>
+    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
+    <col min="3" max="5" width="9" style="2"/>
     <col min="6" max="6" width="11.75" style="2" customWidth="1"/>
     <col min="7" max="9" width="9" style="2"/>
     <col min="10" max="11" width="11.625" style="2" customWidth="1"/>
@@ -1184,7 +1385,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
@@ -1221,7 +1422,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="7">
         <f>B2/$B2</f>
         <v>1</v>
@@ -1264,7 +1465,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="40" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="7">
@@ -1301,7 +1502,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7">
         <f>B4/$B4</f>
         <v>1</v>
@@ -1344,7 +1545,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="40" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
@@ -1369,7 +1570,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="7">
         <f>B6/$B6</f>
         <v>1</v>
@@ -1528,7 +1729,7 @@
     </row>
     <row r="13" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="34" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="B13" s="35">
         <v>19286</v>
@@ -1544,7 +1745,7 @@
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="34" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B14" s="35">
         <v>12826</v>
@@ -1560,7 +1761,7 @@
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B15" s="2">
         <v>3426</v>
@@ -1576,7 +1777,7 @@
     </row>
     <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="35">
         <v>85473</v>
@@ -1590,9 +1791,9 @@
         <v>4.4318676760344289</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A17" s="34" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B17" s="35">
         <v>49816</v>
@@ -1606,9 +1807,9 @@
         <v>2.5830135849839264</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="36" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B18" s="35">
         <v>1160372</v>
@@ -1622,11 +1823,509 @@
         <v>60.166545680804731</v>
       </c>
     </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A22" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A23" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="B23" s="5">
+        <v>1585</v>
+      </c>
+      <c r="C23" s="2">
+        <f>E23-D23</f>
+        <v>1.27</v>
+      </c>
+      <c r="D23" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="E23" s="2">
+        <v>3.84</v>
+      </c>
+      <c r="F23" s="2">
+        <v>7</v>
+      </c>
+      <c r="G23" s="2">
+        <f>B23*F23</f>
+        <v>11095</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="39" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="5">
+        <v>1877</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" ref="C24:C28" si="10">E24-D24</f>
+        <v>0.9700000000000002</v>
+      </c>
+      <c r="D24" s="2">
+        <v>2.84</v>
+      </c>
+      <c r="E24" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="F24" s="2">
+        <v>7</v>
+      </c>
+      <c r="G24" s="2">
+        <f t="shared" ref="G24:G29" si="11">B24*F24</f>
+        <v>13139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="5">
+        <v>399</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="10"/>
+        <v>0.95000000000000018</v>
+      </c>
+      <c r="D25" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="E25" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="F25" s="2">
+        <v>6</v>
+      </c>
+      <c r="G25" s="2">
+        <f t="shared" si="11"/>
+        <v>2394</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26" s="5">
+        <v>7065</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="10"/>
+        <v>1.25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2.56</v>
+      </c>
+      <c r="E26" s="2">
+        <v>3.81</v>
+      </c>
+      <c r="F26" s="2">
+        <v>3</v>
+      </c>
+      <c r="G26" s="2">
+        <f t="shared" si="11"/>
+        <v>21195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="5">
+        <f>51191/4</f>
+        <v>12797.75</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1.42</v>
+      </c>
+      <c r="F27" s="2">
+        <v>4</v>
+      </c>
+      <c r="G27" s="2">
+        <f t="shared" si="11"/>
+        <v>51191</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="7">
+        <v>8506</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="10"/>
+        <v>1.1700000000000004</v>
+      </c>
+      <c r="D28" s="2">
+        <v>2.57</v>
+      </c>
+      <c r="E28" s="2">
+        <v>3.74</v>
+      </c>
+      <c r="F28" s="2">
+        <v>4</v>
+      </c>
+      <c r="G28" s="2">
+        <f t="shared" si="11"/>
+        <v>34024</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="7">
+        <v>28253</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F29" s="2">
+        <v>3</v>
+      </c>
+      <c r="G29" s="2">
+        <f t="shared" si="11"/>
+        <v>84759</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A30" s="39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="2">
+        <v>448</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.16</v>
+      </c>
+      <c r="G30" s="2">
+        <f>SUM(G23:G29)</f>
+        <v>217797</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D39" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="E39" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="F39" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="G39" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="H39" s="50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="51"/>
+      <c r="B40" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="C40" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="E40" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F40" s="53"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+    </row>
+    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="47">
+        <v>0</v>
+      </c>
+      <c r="C41" s="47">
+        <v>0</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="47">
+        <v>4</v>
+      </c>
+      <c r="F41" s="47">
+        <v>4</v>
+      </c>
+      <c r="G41" s="47">
+        <v>4</v>
+      </c>
+      <c r="H41" s="47">
+        <f>SUM(B41:G41)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="47">
+        <v>7</v>
+      </c>
+      <c r="C42" s="47">
+        <v>7</v>
+      </c>
+      <c r="D42" s="47">
+        <v>3</v>
+      </c>
+      <c r="E42" s="47">
+        <v>6</v>
+      </c>
+      <c r="F42" s="47">
+        <v>4</v>
+      </c>
+      <c r="G42" s="47">
+        <v>4</v>
+      </c>
+      <c r="H42" s="47">
+        <f>SUM(B42:G42)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="49">
+        <f>B41/B42</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="49">
+        <f t="shared" ref="C43:G43" si="12">C41/C42</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="49">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="E43" s="49">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F43" s="49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="G43" s="49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="H43" s="49">
+        <f>H41/H42</f>
+        <v>0.38709677419354838</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" s="47">
+        <v>0</v>
+      </c>
+      <c r="C44" s="47">
+        <v>0</v>
+      </c>
+      <c r="D44" s="47">
+        <v>2</v>
+      </c>
+      <c r="E44" s="47">
+        <v>3</v>
+      </c>
+      <c r="F44" s="47">
+        <v>2</v>
+      </c>
+      <c r="G44" s="47">
+        <v>0</v>
+      </c>
+      <c r="H44" s="47">
+        <f>SUM(B44:G44)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B45" s="47">
+        <v>7</v>
+      </c>
+      <c r="C45" s="47">
+        <v>7</v>
+      </c>
+      <c r="D45" s="47">
+        <v>3</v>
+      </c>
+      <c r="E45" s="47">
+        <v>6</v>
+      </c>
+      <c r="F45" s="47">
+        <v>4</v>
+      </c>
+      <c r="G45" s="47">
+        <v>4</v>
+      </c>
+      <c r="H45" s="47">
+        <f>SUM(B45:G45)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B46" s="49">
+        <f>B44/B45</f>
+        <v>0</v>
+      </c>
+      <c r="C46" s="49">
+        <f t="shared" ref="C46" si="13">C44/C45</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="49">
+        <f t="shared" ref="D46" si="14">D44/D45</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E46" s="49">
+        <f t="shared" ref="E46" si="15">E44/E45</f>
+        <v>0.5</v>
+      </c>
+      <c r="F46" s="49">
+        <f t="shared" ref="F46" si="16">F44/F45</f>
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="49">
+        <f t="shared" ref="G46" si="17">G44/G45</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="49">
+        <f>H44/H45</f>
+        <v>0.22580645161290322</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="B47" s="47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="47">
+        <v>2</v>
+      </c>
+      <c r="D47" s="47">
+        <v>0</v>
+      </c>
+      <c r="E47" s="47">
+        <v>2</v>
+      </c>
+      <c r="F47" s="47">
+        <v>0</v>
+      </c>
+      <c r="G47" s="47">
+        <v>0</v>
+      </c>
+      <c r="H47" s="47">
+        <f>SUM(B47:G47)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="48" t="s">
+        <v>66</v>
+      </c>
+      <c r="B48" s="47">
+        <v>7</v>
+      </c>
+      <c r="C48" s="47">
+        <v>7</v>
+      </c>
+      <c r="D48" s="47">
+        <v>3</v>
+      </c>
+      <c r="E48" s="47">
+        <v>6</v>
+      </c>
+      <c r="F48" s="47">
+        <v>4</v>
+      </c>
+      <c r="G48" s="47">
+        <v>4</v>
+      </c>
+      <c r="H48" s="47">
+        <f>SUM(B48:G48)</f>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="49">
+        <f>B47/B48</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C49" s="49">
+        <f t="shared" ref="C49" si="18">C47/C48</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D49" s="49">
+        <f t="shared" ref="D49" si="19">D47/D48</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="49">
+        <f t="shared" ref="E49" si="20">E47/E48</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F49" s="49">
+        <f t="shared" ref="F49" si="21">F47/F48</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="49">
+        <f t="shared" ref="G49" si="22">G47/G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="49">
+        <f>H47/H48</f>
+        <v>0.16129032258064516</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="7">
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="H39:H40"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="F39:F40"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1639,7 +2338,7 @@
   <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -1691,7 +2390,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="40" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -1722,7 +2421,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
+      <c r="A3" s="42"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -1751,7 +2450,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -1780,7 +2479,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -1809,7 +2508,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -1838,7 +2537,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -1856,7 +2555,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="40" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1887,7 +2586,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="41"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -1916,7 +2615,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="40"/>
+      <c r="A10" s="41"/>
       <c r="B10" s="21" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1934,7 +2633,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="s">
+      <c r="A11" s="40" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -1967,7 +2666,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -1985,7 +2684,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5"/>
@@ -2018,7 +2717,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="42"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2101,7 +2800,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="str">
+      <c r="A2" s="40" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2147,7 +2846,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="40"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="29">
         <f>B2/$K2</f>
         <v>0.11901856614541291</v>
@@ -2187,7 +2886,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="str">
+      <c r="A4" s="40" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2233,7 +2932,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="40"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="29">
         <f>B4/$K4</f>
         <v>6.2281216962292961E-2</v>
@@ -2273,7 +2972,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="str">
+      <c r="A6" s="40" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -2319,7 +3018,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="40"/>
+      <c r="A7" s="41"/>
       <c r="B7" s="29">
         <f>B6/$K6</f>
         <v>2.3777010922087911E-2</v>
@@ -2359,7 +3058,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="43" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2405,7 +3104,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="29">
         <f>B8/$K8</f>
         <v>4.7001462701121405E-2</v>
@@ -2503,7 +3202,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="42" t="str">
+      <c r="A2" s="43" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2532,7 +3231,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="42"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="5" t="str">
         <f>架构比较!B3</f>
         <v>T2</v>
@@ -2558,7 +3257,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="42"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="5" t="str">
         <f>架构比较!B4</f>
         <v>T3</v>
@@ -2584,7 +3283,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="42"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="5" t="str">
         <f>架构比较!B5</f>
         <v>T4</v>
@@ -2610,7 +3309,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="42"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="5" t="str">
         <f>架构比较!B6</f>
         <v>T5</v>
@@ -2636,7 +3335,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="42"/>
+      <c r="A7" s="43"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -2661,7 +3360,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="42" t="str">
+      <c r="A8" s="43" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2689,7 +3388,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="5" t="str">
         <f>架构比较!B9</f>
         <v>T2</v>
@@ -2714,7 +3413,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="42"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2739,7 +3438,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="39" t="str">
+      <c r="A11" s="40" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -2766,7 +3465,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="40"/>
+      <c r="A12" s="41"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2791,7 +3490,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="39" t="str">
+      <c r="A13" s="40" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -2818,7 +3517,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="40"/>
+      <c r="A14" s="41"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -2857,7 +3556,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>

--- a/对比/架构优化_160220 - 副本.xlsx
+++ b/对比/架构优化_160220 - 副本.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="142">
   <si>
     <t>AES</t>
   </si>
@@ -405,6 +405,260 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>有限域乘法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算术单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>移位单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>置换单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>逻辑单元</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cyptoraptor</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RCPA</t>
+  </si>
+  <si>
+    <t>RCPA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>COBRA</t>
+  </si>
+  <si>
+    <t>COBRA</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPU</t>
+  </si>
+  <si>
+    <t>RPU</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本文</t>
+  </si>
+  <si>
+    <t>本文</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源利用率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>盒</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能单元利用率</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>架构</t>
+  </si>
+  <si>
+    <t>架构</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法包含操作</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射资源消耗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>有限域乘法</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DES</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CAST128</t>
+  </si>
+  <si>
+    <t>SERPENT</t>
+  </si>
+  <si>
+    <t>SEED</t>
+  </si>
+  <si>
+    <t>RC6</t>
+  </si>
+  <si>
+    <t>IDEA</t>
+  </si>
+  <si>
+    <t>CAMELLIA</t>
+  </si>
+  <si>
+    <t>GOST</t>
+  </si>
+  <si>
+    <t>TEA</t>
+  </si>
+  <si>
+    <t>SPECK</t>
+  </si>
+  <si>
+    <t>SIMON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LUCIFER </t>
+  </si>
+  <si>
+    <t>CLEFIA</t>
+  </si>
+  <si>
+    <t>ARIA</t>
+  </si>
+  <si>
+    <t>CRYPTOMERIA/C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRESENT </t>
+  </si>
+  <si>
+    <t>MACGUFFIN</t>
+  </si>
+  <si>
+    <t>SQUARE</t>
+  </si>
+  <si>
+    <t>M6</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>SHARK</t>
+  </si>
+  <si>
+    <t>CS-CIPHER</t>
+  </si>
+  <si>
+    <t>NUSH</t>
+  </si>
+  <si>
+    <t>GRAND CRU</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>KHAZAD</t>
+  </si>
+  <si>
+    <t>HIEROCRYPT-L1</t>
+  </si>
+  <si>
+    <t>HIEROCRYPT-3</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>XTEA</t>
+  </si>
+  <si>
+    <t>SKIPJECT</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>项目中的架构</t>
+  </si>
+  <si>
+    <t>SM4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>映射行数</t>
+  </si>
+  <si>
+    <t>功能单元使用</t>
+  </si>
+  <si>
+    <t>LUT</t>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>面积/mm2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>性能面积比</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -415,7 +669,7 @@
     <numFmt numFmtId="177" formatCode="#,##0.0_ "/>
     <numFmt numFmtId="178" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -494,6 +748,12 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="4">
@@ -672,7 +932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -779,18 +1039,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -815,11 +1063,71 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1326,21 +1634,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K49"/>
+  <dimension ref="A1:W238"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="I75" workbookViewId="0">
+      <selection activeCell="P89" sqref="P89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="14.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="15.125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="11.75" style="2" customWidth="1"/>
-    <col min="7" max="9" width="9" style="2"/>
-    <col min="10" max="11" width="11.625" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="2.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="3.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="4.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="3.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="4.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="5.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="4.25" style="2" customWidth="1"/>
+    <col min="11" max="11" width="4.125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="4.5" style="2" customWidth="1"/>
+    <col min="13" max="13" width="4.875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.15">
@@ -1385,7 +1700,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="48" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5">
@@ -1422,7 +1737,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="7">
         <f>B2/$B2</f>
         <v>1</v>
@@ -1465,7 +1780,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="48" t="s">
         <v>36</v>
       </c>
       <c r="B4" s="7">
@@ -1502,7 +1817,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="7">
         <f>B4/$B4</f>
         <v>1</v>
@@ -1545,7 +1860,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="48" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="5">
@@ -1570,7 +1885,7 @@
       <c r="K6" s="5"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="7">
         <f>B6/$B6</f>
         <v>1</v>
@@ -2011,314 +2326,6617 @@
         <v>217797</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A39" s="50" t="s">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K36" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="L36" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="O36" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="P36" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="K37" s="5">
+        <v>1585</v>
+      </c>
+      <c r="L37" s="5">
+        <v>1877</v>
+      </c>
+      <c r="M37" s="5">
+        <v>7065</v>
+      </c>
+      <c r="N37" s="5">
+        <v>399</v>
+      </c>
+      <c r="O37" s="5">
+        <f>51191/4</f>
+        <v>12797.75</v>
+      </c>
+      <c r="P37" s="7">
+        <v>8506</v>
+      </c>
+      <c r="Q37" s="7">
+        <v>28253</v>
+      </c>
+      <c r="R37" s="2">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="A39" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="C39" s="44" t="s">
+      <c r="C39" s="40" t="s">
         <v>61</v>
       </c>
-      <c r="D39" s="44" t="s">
+      <c r="D39" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="E39" s="44" t="s">
+      <c r="E39" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="F39" s="52" t="s">
+      <c r="F39" s="50" t="s">
         <v>64</v>
       </c>
-      <c r="G39" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="H39" s="50" t="s">
+      <c r="G39" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="H39" s="46" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="51"/>
-      <c r="B40" s="45" t="s">
+    <row r="40" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="47"/>
+      <c r="B40" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="C40" s="45" t="s">
+      <c r="C40" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="D40" s="45" t="s">
+      <c r="D40" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="E40" s="45" t="s">
+      <c r="E40" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="51"/>
-      <c r="H40" s="51"/>
-    </row>
-    <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="46" t="s">
+      <c r="F40" s="51"/>
+      <c r="G40" s="47"/>
+      <c r="H40" s="47"/>
+    </row>
+    <row r="41" spans="1:18" ht="24" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="47">
-        <v>0</v>
-      </c>
-      <c r="C41" s="47">
-        <v>0</v>
-      </c>
-      <c r="D41" s="47">
-        <v>0</v>
-      </c>
-      <c r="E41" s="47">
-        <v>4</v>
-      </c>
-      <c r="F41" s="47">
-        <v>4</v>
-      </c>
-      <c r="G41" s="47">
-        <v>4</v>
-      </c>
-      <c r="H41" s="47">
+      <c r="B41" s="43">
+        <v>0</v>
+      </c>
+      <c r="C41" s="43">
+        <v>0</v>
+      </c>
+      <c r="D41" s="43">
+        <v>0</v>
+      </c>
+      <c r="E41" s="43">
+        <v>4</v>
+      </c>
+      <c r="F41" s="43">
+        <v>4</v>
+      </c>
+      <c r="G41" s="43">
+        <v>4</v>
+      </c>
+      <c r="H41" s="43">
         <f>SUM(B41:G41)</f>
         <v>12</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="48" t="s">
+      <c r="L41" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M41" s="2">
+        <f>C27+C29+C30</f>
+        <v>2.15</v>
+      </c>
+      <c r="N41" s="62">
+        <f>1/M41</f>
+        <v>0.46511627906976744</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="47">
+      <c r="B42" s="43">
         <v>7</v>
       </c>
-      <c r="C42" s="47">
+      <c r="C42" s="43">
         <v>7</v>
       </c>
-      <c r="D42" s="47">
+      <c r="D42" s="43">
         <v>3</v>
       </c>
-      <c r="E42" s="47">
+      <c r="E42" s="43">
         <v>6</v>
       </c>
-      <c r="F42" s="47">
-        <v>4</v>
-      </c>
-      <c r="G42" s="47">
-        <v>4</v>
-      </c>
-      <c r="H42" s="47">
+      <c r="F42" s="43">
+        <v>4</v>
+      </c>
+      <c r="G42" s="43">
+        <v>4</v>
+      </c>
+      <c r="H42" s="43">
         <f>SUM(B42:G42)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
+    <row r="43" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B43" s="49">
+      <c r="B43" s="45">
         <f>B41/B42</f>
         <v>0</v>
       </c>
-      <c r="C43" s="49">
+      <c r="C43" s="45">
         <f t="shared" ref="C43:G43" si="12">C41/C42</f>
         <v>0</v>
       </c>
-      <c r="D43" s="49">
+      <c r="D43" s="45">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="E43" s="49">
+      <c r="E43" s="45">
         <f t="shared" si="12"/>
         <v>0.66666666666666663</v>
       </c>
-      <c r="F43" s="49">
+      <c r="F43" s="45">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="G43" s="49">
+      <c r="G43" s="45">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="H43" s="49">
+      <c r="H43" s="45">
         <f>H41/H42</f>
         <v>0.38709677419354838</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="46" t="s">
+      <c r="L43" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="M43" s="2">
+        <f>C29+C25*2+C27</f>
+        <v>3.89</v>
+      </c>
+      <c r="N43" s="62">
+        <f t="shared" ref="N43" si="13">1/M43</f>
+        <v>0.25706940874035988</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" ht="24" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B44" s="47">
-        <v>0</v>
-      </c>
-      <c r="C44" s="47">
-        <v>0</v>
-      </c>
-      <c r="D44" s="47">
+      <c r="B44" s="43">
+        <v>0</v>
+      </c>
+      <c r="C44" s="43">
+        <v>0</v>
+      </c>
+      <c r="D44" s="43">
         <v>2</v>
       </c>
-      <c r="E44" s="47">
+      <c r="E44" s="43">
         <v>3</v>
       </c>
-      <c r="F44" s="47">
+      <c r="F44" s="43">
         <v>2</v>
       </c>
-      <c r="G44" s="47">
-        <v>0</v>
-      </c>
-      <c r="H44" s="47">
+      <c r="G44" s="43">
+        <v>0</v>
+      </c>
+      <c r="H44" s="43">
         <f>SUM(B44:G44)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="48" t="s">
+    <row r="45" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="47">
+      <c r="B45" s="43">
         <v>7</v>
       </c>
-      <c r="C45" s="47">
+      <c r="C45" s="43">
         <v>7</v>
       </c>
-      <c r="D45" s="47">
+      <c r="D45" s="43">
         <v>3</v>
       </c>
-      <c r="E45" s="47">
+      <c r="E45" s="43">
         <v>6</v>
       </c>
-      <c r="F45" s="47">
-        <v>4</v>
-      </c>
-      <c r="G45" s="47">
-        <v>4</v>
-      </c>
-      <c r="H45" s="47">
+      <c r="F45" s="43">
+        <v>4</v>
+      </c>
+      <c r="G45" s="43">
+        <v>4</v>
+      </c>
+      <c r="H45" s="43">
         <f>SUM(B45:G45)</f>
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="48" t="s">
+      <c r="L45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" s="2">
+        <f>C23*2+C24*3+C25*3+C27*2+C28*1+C29</f>
+        <v>12.88</v>
+      </c>
+      <c r="N45" s="62">
+        <f>1/M45</f>
+        <v>7.7639751552795025E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B46" s="49">
+      <c r="B46" s="45">
         <f>B44/B45</f>
         <v>0</v>
       </c>
-      <c r="C46" s="49">
-        <f t="shared" ref="C46" si="13">C44/C45</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="49">
-        <f t="shared" ref="D46" si="14">D44/D45</f>
+      <c r="C46" s="45">
+        <f t="shared" ref="C46" si="14">C44/C45</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="45">
+        <f t="shared" ref="D46" si="15">D44/D45</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="E46" s="49">
-        <f t="shared" ref="E46" si="15">E44/E45</f>
+      <c r="E46" s="45">
+        <f t="shared" ref="E46" si="16">E44/E45</f>
         <v>0.5</v>
       </c>
-      <c r="F46" s="49">
-        <f t="shared" ref="F46" si="16">F44/F45</f>
+      <c r="F46" s="45">
+        <f t="shared" ref="F46" si="17">F44/F45</f>
         <v>0.5</v>
       </c>
-      <c r="G46" s="49">
-        <f t="shared" ref="G46" si="17">G44/G45</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="49">
+      <c r="G46" s="45">
+        <f t="shared" ref="G46" si="18">G44/G45</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="45">
         <f>H44/H45</f>
         <v>0.22580645161290322</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="46" t="s">
+    <row r="47" spans="1:18" ht="24" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="47">
+      <c r="B47" s="43">
         <v>1</v>
       </c>
-      <c r="C47" s="47">
+      <c r="C47" s="43">
         <v>2</v>
       </c>
-      <c r="D47" s="47">
-        <v>0</v>
-      </c>
-      <c r="E47" s="47">
+      <c r="D47" s="43">
+        <v>0</v>
+      </c>
+      <c r="E47" s="43">
         <v>2</v>
       </c>
-      <c r="F47" s="47">
-        <v>0</v>
-      </c>
-      <c r="G47" s="47">
-        <v>0</v>
-      </c>
-      <c r="H47" s="47">
+      <c r="F47" s="43">
+        <v>0</v>
+      </c>
+      <c r="G47" s="43">
+        <v>0</v>
+      </c>
+      <c r="H47" s="43">
         <f>SUM(B47:G47)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="48" t="s">
+      <c r="L47" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2</v>
+      </c>
+      <c r="N47" s="62">
+        <f>1/M47</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="23.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="44" t="s">
         <v>66</v>
       </c>
-      <c r="B48" s="47">
+      <c r="B48" s="43">
         <v>7</v>
       </c>
-      <c r="C48" s="47">
+      <c r="C48" s="43">
         <v>7</v>
       </c>
-      <c r="D48" s="47">
+      <c r="D48" s="43">
         <v>3</v>
       </c>
-      <c r="E48" s="47">
+      <c r="E48" s="43">
         <v>6</v>
       </c>
-      <c r="F48" s="47">
-        <v>4</v>
-      </c>
-      <c r="G48" s="47">
-        <v>4</v>
-      </c>
-      <c r="H48" s="47">
+      <c r="F48" s="43">
+        <v>4</v>
+      </c>
+      <c r="G48" s="43">
+        <v>4</v>
+      </c>
+      <c r="H48" s="43">
         <f>SUM(B48:G48)</f>
         <v>31</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="48" t="s">
+    <row r="49" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="B49" s="49">
+      <c r="B49" s="45">
         <f>B47/B48</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="C49" s="49">
-        <f t="shared" ref="C49" si="18">C47/C48</f>
+      <c r="C49" s="45">
+        <f t="shared" ref="C49" si="19">C47/C48</f>
         <v>0.2857142857142857</v>
       </c>
-      <c r="D49" s="49">
-        <f t="shared" ref="D49" si="19">D47/D48</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="49">
-        <f t="shared" ref="E49" si="20">E47/E48</f>
+      <c r="D49" s="45">
+        <f t="shared" ref="D49" si="20">D47/D48</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="45">
+        <f t="shared" ref="E49" si="21">E47/E48</f>
         <v>0.33333333333333331</v>
       </c>
-      <c r="F49" s="49">
-        <f t="shared" ref="F49" si="21">F47/F48</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="49">
-        <f t="shared" ref="G49" si="22">G47/G48</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="49">
+      <c r="F49" s="45">
+        <f t="shared" ref="F49" si="22">F47/F48</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="45">
+        <f t="shared" ref="G49" si="23">G47/G48</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="45">
         <f>H47/H48</f>
         <v>0.16129032258064516</v>
       </c>
+      <c r="L49" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M49" s="2">
+        <v>2</v>
+      </c>
+      <c r="N49" s="62">
+        <f>1/M49</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="R53" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="S53" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="O54" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="2">
+        <v>3</v>
+      </c>
+      <c r="R54" s="2">
+        <v>7</v>
+      </c>
+      <c r="S54" s="2">
+        <v>7</v>
+      </c>
+      <c r="T54" s="2">
+        <v>3</v>
+      </c>
+      <c r="U54" s="2">
+        <v>6</v>
+      </c>
+      <c r="V54" s="2">
+        <v>4</v>
+      </c>
+      <c r="W54" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="2">
+        <v>3</v>
+      </c>
+      <c r="R55" s="2">
+        <v>7</v>
+      </c>
+      <c r="S55" s="2">
+        <v>7</v>
+      </c>
+      <c r="T55" s="2">
+        <v>3</v>
+      </c>
+      <c r="U55" s="2">
+        <v>6</v>
+      </c>
+      <c r="V55" s="2">
+        <v>4</v>
+      </c>
+      <c r="W55" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P56" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q56" s="2">
+        <v>3</v>
+      </c>
+      <c r="R56" s="66">
+        <v>7</v>
+      </c>
+      <c r="S56" s="2">
+        <v>7</v>
+      </c>
+      <c r="T56" s="2">
+        <v>3</v>
+      </c>
+      <c r="U56" s="2">
+        <v>6</v>
+      </c>
+      <c r="V56" s="2">
+        <v>4</v>
+      </c>
+      <c r="W56" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P57" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q57" s="2">
+        <v>6</v>
+      </c>
+      <c r="R57" s="2">
+        <v>14</v>
+      </c>
+      <c r="S57" s="2">
+        <v>14</v>
+      </c>
+      <c r="T57" s="2">
+        <v>6</v>
+      </c>
+      <c r="U57" s="2">
+        <v>12</v>
+      </c>
+      <c r="V57" s="2">
+        <v>8</v>
+      </c>
+      <c r="W57" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P58" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q58" s="2">
+        <v>4</v>
+      </c>
+      <c r="R58" s="2">
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="S58" s="2">
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="T58" s="2">
+        <v>4</v>
+      </c>
+      <c r="U58" s="2">
+        <v>8</v>
+      </c>
+      <c r="V58" s="2">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="W58" s="2">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P59" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q59" s="2">
+        <v>6</v>
+      </c>
+      <c r="R59" s="2">
+        <v>14</v>
+      </c>
+      <c r="S59" s="2">
+        <v>14</v>
+      </c>
+      <c r="T59" s="2">
+        <v>6</v>
+      </c>
+      <c r="U59" s="2">
+        <v>12</v>
+      </c>
+      <c r="V59" s="2">
+        <v>8</v>
+      </c>
+      <c r="W59" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P60" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q60" s="2">
+        <v>9</v>
+      </c>
+      <c r="R60" s="2">
+        <v>21</v>
+      </c>
+      <c r="S60" s="2">
+        <v>21</v>
+      </c>
+      <c r="T60" s="2">
+        <v>9</v>
+      </c>
+      <c r="U60" s="2">
+        <v>18</v>
+      </c>
+      <c r="V60" s="2">
+        <v>12</v>
+      </c>
+      <c r="W60" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q61" s="2">
+        <v>3</v>
+      </c>
+      <c r="R61" s="2">
+        <v>7</v>
+      </c>
+      <c r="S61" s="2">
+        <v>7</v>
+      </c>
+      <c r="T61" s="2">
+        <v>3</v>
+      </c>
+      <c r="U61" s="2">
+        <v>6</v>
+      </c>
+      <c r="V61" s="2">
+        <v>4</v>
+      </c>
+      <c r="W61" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P62" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q62" s="2">
+        <v>15</v>
+      </c>
+      <c r="R62" s="2">
+        <v>35</v>
+      </c>
+      <c r="S62" s="2">
+        <v>35</v>
+      </c>
+      <c r="T62" s="2">
+        <v>15</v>
+      </c>
+      <c r="U62" s="2">
+        <v>30</v>
+      </c>
+      <c r="V62" s="2">
+        <v>20</v>
+      </c>
+      <c r="W62" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P63" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R63" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S63" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T63" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U63" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V63" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W63" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P64" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R64" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S64" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T64" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U64" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V64" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W64" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="65" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P65" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q65" s="2">
+        <v>6</v>
+      </c>
+      <c r="R65" s="2">
+        <v>14</v>
+      </c>
+      <c r="S65" s="2">
+        <v>14</v>
+      </c>
+      <c r="T65" s="2">
+        <v>6</v>
+      </c>
+      <c r="U65" s="2">
+        <v>12</v>
+      </c>
+      <c r="V65" s="2">
+        <v>8</v>
+      </c>
+      <c r="W65" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P66" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q66" s="2">
+        <v>3</v>
+      </c>
+      <c r="R66" s="2">
+        <v>7</v>
+      </c>
+      <c r="S66" s="2">
+        <v>7</v>
+      </c>
+      <c r="T66" s="2">
+        <v>3</v>
+      </c>
+      <c r="U66" s="2">
+        <v>6</v>
+      </c>
+      <c r="V66" s="2">
+        <v>4</v>
+      </c>
+      <c r="W66" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="16:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P67" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q67" s="2">
+        <v>4</v>
+      </c>
+      <c r="R67" s="2">
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="S67" s="2">
+        <v>9.3333333333333321</v>
+      </c>
+      <c r="T67" s="2">
+        <v>4</v>
+      </c>
+      <c r="U67" s="2">
+        <v>8</v>
+      </c>
+      <c r="V67" s="2">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="W67" s="2">
+        <v>5.333333333333333</v>
+      </c>
+    </row>
+    <row r="68" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P68" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q68" s="2">
+        <v>3</v>
+      </c>
+      <c r="R68" s="2">
+        <v>7</v>
+      </c>
+      <c r="S68" s="2">
+        <v>7</v>
+      </c>
+      <c r="T68" s="2">
+        <v>3</v>
+      </c>
+      <c r="U68" s="2">
+        <v>6</v>
+      </c>
+      <c r="V68" s="2">
+        <v>4</v>
+      </c>
+      <c r="W68" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="16:23" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P69" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q69" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R69" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S69" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T69" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U69" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V69" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W69" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="70" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P70" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q70" s="2">
+        <v>3</v>
+      </c>
+      <c r="R70" s="2">
+        <v>7</v>
+      </c>
+      <c r="S70" s="2">
+        <v>7</v>
+      </c>
+      <c r="T70" s="2">
+        <v>3</v>
+      </c>
+      <c r="U70" s="2">
+        <v>6</v>
+      </c>
+      <c r="V70" s="2">
+        <v>4</v>
+      </c>
+      <c r="W70" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P71" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q71" s="2">
+        <v>3</v>
+      </c>
+      <c r="R71" s="2">
+        <v>7</v>
+      </c>
+      <c r="S71" s="2">
+        <v>7</v>
+      </c>
+      <c r="T71" s="2">
+        <v>3</v>
+      </c>
+      <c r="U71" s="2">
+        <v>6</v>
+      </c>
+      <c r="V71" s="2">
+        <v>4</v>
+      </c>
+      <c r="W71" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P72" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q72" s="2">
+        <v>3</v>
+      </c>
+      <c r="R72" s="2">
+        <v>7</v>
+      </c>
+      <c r="S72" s="2">
+        <v>7</v>
+      </c>
+      <c r="T72" s="2">
+        <v>3</v>
+      </c>
+      <c r="U72" s="2">
+        <v>6</v>
+      </c>
+      <c r="V72" s="2">
+        <v>4</v>
+      </c>
+      <c r="W72" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P73" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q73" s="2">
+        <v>3</v>
+      </c>
+      <c r="R73" s="2">
+        <v>7</v>
+      </c>
+      <c r="S73" s="2">
+        <v>7</v>
+      </c>
+      <c r="T73" s="2">
+        <v>3</v>
+      </c>
+      <c r="U73" s="2">
+        <v>6</v>
+      </c>
+      <c r="V73" s="2">
+        <v>4</v>
+      </c>
+      <c r="W73" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P74" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q74" s="2">
+        <v>3</v>
+      </c>
+      <c r="R74" s="2">
+        <v>7</v>
+      </c>
+      <c r="S74" s="2">
+        <v>7</v>
+      </c>
+      <c r="T74" s="2">
+        <v>3</v>
+      </c>
+      <c r="U74" s="2">
+        <v>6</v>
+      </c>
+      <c r="V74" s="2">
+        <v>4</v>
+      </c>
+      <c r="W74" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P75" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q75" s="2">
+        <v>6</v>
+      </c>
+      <c r="R75" s="2">
+        <v>14</v>
+      </c>
+      <c r="S75" s="2">
+        <v>14</v>
+      </c>
+      <c r="T75" s="2">
+        <v>6</v>
+      </c>
+      <c r="U75" s="2">
+        <v>12</v>
+      </c>
+      <c r="V75" s="2">
+        <v>8</v>
+      </c>
+      <c r="W75" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P76" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q76" s="2">
+        <v>3</v>
+      </c>
+      <c r="R76" s="2">
+        <v>7</v>
+      </c>
+      <c r="S76" s="2">
+        <v>7</v>
+      </c>
+      <c r="T76" s="2">
+        <v>3</v>
+      </c>
+      <c r="U76" s="2">
+        <v>6</v>
+      </c>
+      <c r="V76" s="2">
+        <v>4</v>
+      </c>
+      <c r="W76" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P77" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q77" s="2">
+        <v>3</v>
+      </c>
+      <c r="R77" s="2">
+        <v>7</v>
+      </c>
+      <c r="S77" s="2">
+        <v>7</v>
+      </c>
+      <c r="T77" s="2">
+        <v>3</v>
+      </c>
+      <c r="U77" s="2">
+        <v>6</v>
+      </c>
+      <c r="V77" s="2">
+        <v>4</v>
+      </c>
+      <c r="W77" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P78" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q78" s="2">
+        <v>3</v>
+      </c>
+      <c r="R78" s="2">
+        <v>7</v>
+      </c>
+      <c r="S78" s="2">
+        <v>7</v>
+      </c>
+      <c r="T78" s="2">
+        <v>3</v>
+      </c>
+      <c r="U78" s="2">
+        <v>6</v>
+      </c>
+      <c r="V78" s="2">
+        <v>4</v>
+      </c>
+      <c r="W78" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P79" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q79" s="2">
+        <v>9</v>
+      </c>
+      <c r="R79" s="2">
+        <v>21</v>
+      </c>
+      <c r="S79" s="2">
+        <v>21</v>
+      </c>
+      <c r="T79" s="2">
+        <v>9</v>
+      </c>
+      <c r="U79" s="2">
+        <v>18</v>
+      </c>
+      <c r="V79" s="2">
+        <v>12</v>
+      </c>
+      <c r="W79" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P80" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q80" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R80" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S80" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T80" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U80" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V80" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W80" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P81" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q81" s="2">
+        <v>3</v>
+      </c>
+      <c r="R81" s="2">
+        <v>7</v>
+      </c>
+      <c r="S81" s="2">
+        <v>7</v>
+      </c>
+      <c r="T81" s="2">
+        <v>3</v>
+      </c>
+      <c r="U81" s="2">
+        <v>6</v>
+      </c>
+      <c r="V81" s="2">
+        <v>4</v>
+      </c>
+      <c r="W81" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P82" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R82" s="2">
+        <v>0</v>
+      </c>
+      <c r="S82" s="2">
+        <v>0</v>
+      </c>
+      <c r="T82" s="2">
+        <v>0</v>
+      </c>
+      <c r="U82" s="2">
+        <v>0</v>
+      </c>
+      <c r="V82" s="2">
+        <v>0</v>
+      </c>
+      <c r="W82" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P83" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q83" s="2">
+        <v>3</v>
+      </c>
+      <c r="R83" s="2">
+        <v>7</v>
+      </c>
+      <c r="S83" s="2">
+        <v>7</v>
+      </c>
+      <c r="T83" s="2">
+        <v>3</v>
+      </c>
+      <c r="U83" s="2">
+        <v>6</v>
+      </c>
+      <c r="V83" s="2">
+        <v>4</v>
+      </c>
+      <c r="W83" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P84" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q84" s="2">
+        <v>3</v>
+      </c>
+      <c r="R84" s="2">
+        <v>7</v>
+      </c>
+      <c r="S84" s="2">
+        <v>7</v>
+      </c>
+      <c r="T84" s="2">
+        <v>3</v>
+      </c>
+      <c r="U84" s="2">
+        <v>6</v>
+      </c>
+      <c r="V84" s="2">
+        <v>4</v>
+      </c>
+      <c r="W84" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R85" s="2">
+        <v>0</v>
+      </c>
+      <c r="S85" s="2">
+        <v>0</v>
+      </c>
+      <c r="T85" s="2">
+        <v>0</v>
+      </c>
+      <c r="U85" s="2">
+        <v>0</v>
+      </c>
+      <c r="V85" s="2">
+        <v>0</v>
+      </c>
+      <c r="W85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P86" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q86" s="2">
+        <v>9</v>
+      </c>
+      <c r="R86" s="2">
+        <v>21</v>
+      </c>
+      <c r="S86" s="2">
+        <v>21</v>
+      </c>
+      <c r="T86" s="2">
+        <v>9</v>
+      </c>
+      <c r="U86" s="2">
+        <v>18</v>
+      </c>
+      <c r="V86" s="2">
+        <v>12</v>
+      </c>
+      <c r="W86" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P87" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q87" s="2">
+        <v>3</v>
+      </c>
+      <c r="R87" s="2">
+        <v>7</v>
+      </c>
+      <c r="S87" s="2">
+        <v>7</v>
+      </c>
+      <c r="T87" s="2">
+        <v>3</v>
+      </c>
+      <c r="U87" s="2">
+        <v>6</v>
+      </c>
+      <c r="V87" s="2">
+        <v>4</v>
+      </c>
+      <c r="W87" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P88" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q88" s="2">
+        <v>6</v>
+      </c>
+      <c r="R88" s="2">
+        <v>14</v>
+      </c>
+      <c r="S88" s="2">
+        <v>14</v>
+      </c>
+      <c r="T88" s="2">
+        <v>6</v>
+      </c>
+      <c r="U88" s="2">
+        <v>12</v>
+      </c>
+      <c r="V88" s="2">
+        <v>8</v>
+      </c>
+      <c r="W88" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P89" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q89" s="2">
+        <v>6</v>
+      </c>
+      <c r="R89" s="2">
+        <v>14</v>
+      </c>
+      <c r="S89" s="2">
+        <v>14</v>
+      </c>
+      <c r="T89" s="2">
+        <v>6</v>
+      </c>
+      <c r="U89" s="2">
+        <v>12</v>
+      </c>
+      <c r="V89" s="2">
+        <v>8</v>
+      </c>
+      <c r="W89" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="R90" s="2">
+        <v>8</v>
+      </c>
+      <c r="S90" s="2">
+        <v>16</v>
+      </c>
+      <c r="T90" s="2">
+        <v>4</v>
+      </c>
+      <c r="U90" s="2">
+        <v>48</v>
+      </c>
+      <c r="V90" s="2">
+        <v>16</v>
+      </c>
+      <c r="W90" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O91" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P91" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="2">
+        <v>4</v>
+      </c>
+      <c r="R91" s="2">
+        <v>16</v>
+      </c>
+      <c r="S91" s="2">
+        <v>32</v>
+      </c>
+      <c r="T91" s="2">
+        <v>8</v>
+      </c>
+      <c r="U91" s="2">
+        <v>96</v>
+      </c>
+      <c r="V91" s="2">
+        <v>32</v>
+      </c>
+      <c r="W91" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="P92" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q92" s="2">
+        <v>4</v>
+      </c>
+      <c r="R92" s="2">
+        <v>16</v>
+      </c>
+      <c r="S92" s="2">
+        <v>32</v>
+      </c>
+      <c r="T92" s="2">
+        <v>8</v>
+      </c>
+      <c r="U92" s="2">
+        <v>96</v>
+      </c>
+      <c r="V92" s="2">
+        <v>32</v>
+      </c>
+      <c r="W92" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A93" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="B93" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="C93" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="D93" s="58"/>
+      <c r="E93" s="58"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="58"/>
+      <c r="I93" s="58"/>
+      <c r="J93" s="58"/>
+      <c r="K93" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L93" s="56"/>
+      <c r="M93" s="56"/>
+      <c r="P93" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q93" s="2">
+        <v>4</v>
+      </c>
+      <c r="R93" s="2">
+        <v>16</v>
+      </c>
+      <c r="S93" s="2">
+        <v>32</v>
+      </c>
+      <c r="T93" s="2">
+        <v>8</v>
+      </c>
+      <c r="U93" s="2">
+        <v>96</v>
+      </c>
+      <c r="V93" s="2">
+        <v>32</v>
+      </c>
+      <c r="W93" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A94" s="58"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="E94" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="F94" s="54" t="s">
+        <v>74</v>
+      </c>
+      <c r="G94" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="H94" s="55" t="s">
+        <v>87</v>
+      </c>
+      <c r="I94" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="J94" s="54" t="s">
+        <v>68</v>
+      </c>
+      <c r="K94" s="58" t="s">
+        <v>76</v>
+      </c>
+      <c r="L94" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="M94" s="58" t="s">
+        <v>141</v>
+      </c>
+      <c r="P94" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q94" s="2">
+        <v>6</v>
+      </c>
+      <c r="R94" s="2">
+        <v>24</v>
+      </c>
+      <c r="S94" s="2">
+        <v>48</v>
+      </c>
+      <c r="T94" s="2">
+        <v>12</v>
+      </c>
+      <c r="U94" s="2">
+        <v>144</v>
+      </c>
+      <c r="V94" s="2">
+        <v>48</v>
+      </c>
+      <c r="W94" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A95" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="61"/>
+      <c r="C95" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D95" s="55">
+        <v>0</v>
+      </c>
+      <c r="E95" s="55">
+        <v>0</v>
+      </c>
+      <c r="F95" s="55">
+        <v>0</v>
+      </c>
+      <c r="G95" s="55">
+        <v>4</v>
+      </c>
+      <c r="H95" s="55">
+        <v>4</v>
+      </c>
+      <c r="I95" s="55">
+        <v>4</v>
+      </c>
+      <c r="J95" s="55">
+        <f>SUM(D95:I95)</f>
+        <v>12</v>
+      </c>
+      <c r="K95" s="58"/>
+      <c r="L95" s="58"/>
+      <c r="M95" s="58"/>
+      <c r="P95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>4</v>
+      </c>
+      <c r="R95" s="2">
+        <v>16</v>
+      </c>
+      <c r="S95" s="2">
+        <v>32</v>
+      </c>
+      <c r="T95" s="2">
+        <v>8</v>
+      </c>
+      <c r="U95" s="2">
+        <v>96</v>
+      </c>
+      <c r="V95" s="2">
+        <v>32</v>
+      </c>
+      <c r="W95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A96" s="56"/>
+      <c r="B96" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C96" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D96" s="55">
+        <f>R128</f>
+        <v>8</v>
+      </c>
+      <c r="E96" s="55">
+        <f>S128</f>
+        <v>8</v>
+      </c>
+      <c r="F96" s="55">
+        <f>T128</f>
+        <v>8</v>
+      </c>
+      <c r="G96" s="55">
+        <f>U128</f>
+        <v>48</v>
+      </c>
+      <c r="H96" s="55">
+        <f>V128</f>
+        <v>56</v>
+      </c>
+      <c r="I96" s="55">
+        <f>W128</f>
+        <v>0</v>
+      </c>
+      <c r="J96" s="55">
+        <f>SUM(D96:I96)</f>
+        <v>128</v>
+      </c>
+      <c r="K96" s="68">
+        <f>128*N41</f>
+        <v>59.534883720930232</v>
+      </c>
+      <c r="L96" s="68">
+        <f>(D96*K$37+E96*L$37+F96*M$37+G96*N$37+H96*O$37+I96*P$37+Q128*Q$37)/1000000</f>
+        <v>0.87654799999999999</v>
+      </c>
+      <c r="M96" s="68">
+        <f>K96/L96</f>
+        <v>67.919707444350152</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>5</v>
+      </c>
+      <c r="R96" s="2">
+        <v>20</v>
+      </c>
+      <c r="S96" s="2">
+        <v>40</v>
+      </c>
+      <c r="T96" s="2">
+        <v>10</v>
+      </c>
+      <c r="U96" s="2">
+        <v>120</v>
+      </c>
+      <c r="V96" s="2">
+        <v>40</v>
+      </c>
+      <c r="W96" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A97" s="56"/>
+      <c r="B97" s="56"/>
+      <c r="C97" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D97" s="57">
+        <f>D95/D96</f>
+        <v>0</v>
+      </c>
+      <c r="E97" s="57">
+        <f>E95/E96</f>
+        <v>0</v>
+      </c>
+      <c r="F97" s="57">
+        <f>F95/F96</f>
+        <v>0</v>
+      </c>
+      <c r="G97" s="57">
+        <f>G95/G96</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H97" s="57">
+        <f>H95/H96</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="I97" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="J97" s="57">
+        <f>J95/J96</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="K97" s="68"/>
+      <c r="L97" s="68"/>
+      <c r="M97" s="68"/>
+      <c r="P97" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q97" s="2">
+        <v>8</v>
+      </c>
+      <c r="R97" s="2">
+        <v>32</v>
+      </c>
+      <c r="S97" s="2">
+        <v>64</v>
+      </c>
+      <c r="T97" s="2">
+        <v>16</v>
+      </c>
+      <c r="U97" s="2">
+        <v>192</v>
+      </c>
+      <c r="V97" s="2">
+        <v>64</v>
+      </c>
+      <c r="W97" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A98" s="56"/>
+      <c r="B98" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D98" s="55">
+        <f>R165</f>
+        <v>8</v>
+      </c>
+      <c r="E98" s="55">
+        <f>S165</f>
+        <v>8</v>
+      </c>
+      <c r="F98" s="55">
+        <f>T165</f>
+        <v>8</v>
+      </c>
+      <c r="G98" s="55">
+        <f>U165</f>
+        <v>16</v>
+      </c>
+      <c r="H98" s="55">
+        <f>V165</f>
+        <v>16</v>
+      </c>
+      <c r="I98" s="55">
+        <f>W165</f>
+        <v>8</v>
+      </c>
+      <c r="J98" s="55">
+        <f>SUM(D98:I98)</f>
+        <v>64</v>
+      </c>
+      <c r="K98" s="68">
+        <f>128*N43</f>
+        <v>32.904884318766065</v>
+      </c>
+      <c r="L98" s="68">
+        <f>(D98*K$37+E98*L$37+F98*M$37+G98*N$37+H98*O$37+I98*P$37+Q165*Q$37)/1000000</f>
+        <v>0.41991800000000001</v>
+      </c>
+      <c r="M98" s="68">
+        <f>K98/L98</f>
+        <v>78.360261571940384</v>
+      </c>
+      <c r="P98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q98" s="2">
+        <v>4</v>
+      </c>
+      <c r="R98" s="2">
+        <v>16</v>
+      </c>
+      <c r="S98" s="2">
+        <v>32</v>
+      </c>
+      <c r="T98" s="2">
+        <v>8</v>
+      </c>
+      <c r="U98" s="2">
+        <v>96</v>
+      </c>
+      <c r="V98" s="2">
+        <v>32</v>
+      </c>
+      <c r="W98" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A99" s="56"/>
+      <c r="B99" s="56"/>
+      <c r="C99" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D99" s="63">
+        <f>D95/D98</f>
+        <v>0</v>
+      </c>
+      <c r="E99" s="63">
+        <f t="shared" ref="E99:J99" si="24">E95/E98</f>
+        <v>0</v>
+      </c>
+      <c r="F99" s="63">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="G99" s="63">
+        <f t="shared" si="24"/>
+        <v>0.25</v>
+      </c>
+      <c r="H99" s="63">
+        <f t="shared" si="24"/>
+        <v>0.25</v>
+      </c>
+      <c r="I99" s="63">
+        <f t="shared" si="24"/>
+        <v>0.5</v>
+      </c>
+      <c r="J99" s="63">
+        <f t="shared" si="24"/>
+        <v>0.1875</v>
+      </c>
+      <c r="K99" s="68"/>
+      <c r="L99" s="68"/>
+      <c r="M99" s="68"/>
+      <c r="P99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q99" s="2">
+        <v>12</v>
+      </c>
+      <c r="R99" s="2">
+        <v>48</v>
+      </c>
+      <c r="S99" s="2">
+        <v>96</v>
+      </c>
+      <c r="T99" s="2">
+        <v>24</v>
+      </c>
+      <c r="U99" s="2">
+        <v>288</v>
+      </c>
+      <c r="V99" s="2">
+        <v>96</v>
+      </c>
+      <c r="W99" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A100" s="56"/>
+      <c r="B100" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C100" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D100" s="64">
+        <f>R202</f>
+        <v>16</v>
+      </c>
+      <c r="E100" s="64">
+        <f>S202</f>
+        <v>24</v>
+      </c>
+      <c r="F100" s="64">
+        <f>T202</f>
+        <v>8</v>
+      </c>
+      <c r="G100" s="64">
+        <f>U202</f>
+        <v>24</v>
+      </c>
+      <c r="H100" s="64">
+        <f>V202</f>
+        <v>4</v>
+      </c>
+      <c r="I100" s="64">
+        <f>W202</f>
+        <v>8</v>
+      </c>
+      <c r="J100" s="64">
+        <f>SUM(D100:I100)</f>
+        <v>84</v>
+      </c>
+      <c r="K100" s="68">
+        <f>128*N45</f>
+        <v>9.9378881987577632</v>
+      </c>
+      <c r="L100" s="68">
+        <f>(D100*K$37+E100*L$37+F100*M$37+G100*N$37+H100*O$37+I100*P$37+Q202*Q$37)/1000000</f>
+        <v>0.312249</v>
+      </c>
+      <c r="M100" s="68">
+        <f>K100/L100</f>
+        <v>31.826805526223506</v>
+      </c>
+      <c r="P100" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R100" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S100" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T100" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U100" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V100" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W100" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A101" s="56"/>
+      <c r="B101" s="56"/>
+      <c r="C101" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D101" s="63">
+        <f>D95/D100</f>
+        <v>0</v>
+      </c>
+      <c r="E101" s="63">
+        <f t="shared" ref="E101:J101" si="25">E95/E100</f>
+        <v>0</v>
+      </c>
+      <c r="F101" s="63">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="G101" s="63">
+        <f t="shared" si="25"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H101" s="63">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="I101" s="63">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="J101" s="63">
+        <f t="shared" si="25"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K101" s="68"/>
+      <c r="L101" s="68"/>
+      <c r="M101" s="68"/>
+      <c r="P101" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q101" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R101" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S101" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T101" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U101" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V101" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W101" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A102" s="56"/>
+      <c r="B102" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C102" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D102" s="55">
+        <f>R91</f>
+        <v>16</v>
+      </c>
+      <c r="E102" s="55">
+        <f>S91</f>
+        <v>32</v>
+      </c>
+      <c r="F102" s="55">
+        <f>T91</f>
+        <v>8</v>
+      </c>
+      <c r="G102" s="55">
+        <f>U91</f>
+        <v>96</v>
+      </c>
+      <c r="H102" s="55">
+        <f>V91</f>
+        <v>32</v>
+      </c>
+      <c r="I102" s="55">
+        <f>W91</f>
+        <v>0</v>
+      </c>
+      <c r="J102" s="55">
+        <f>SUM(D102:I102)</f>
+        <v>184</v>
+      </c>
+      <c r="K102" s="68">
+        <f>128*N47</f>
+        <v>64</v>
+      </c>
+      <c r="L102" s="68">
+        <f>(D102*K$37+E102*L$37+F102*M$37+G102*N$37+H102*O$37+I102*P$37+Q91*Q$37)/1000000</f>
+        <v>0.70278799999999997</v>
+      </c>
+      <c r="M102" s="68">
+        <f t="shared" ref="M102" si="26">K102/L102</f>
+        <v>91.065869081429966</v>
+      </c>
+      <c r="P102" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q102" s="2">
+        <v>6</v>
+      </c>
+      <c r="R102" s="2">
+        <v>24</v>
+      </c>
+      <c r="S102" s="2">
+        <v>48</v>
+      </c>
+      <c r="T102" s="2">
+        <v>12</v>
+      </c>
+      <c r="U102" s="2">
+        <v>144</v>
+      </c>
+      <c r="V102" s="2">
+        <v>48</v>
+      </c>
+      <c r="W102" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A103" s="56"/>
+      <c r="B103" s="56"/>
+      <c r="C103" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D103" s="57">
+        <f>D95/D102</f>
+        <v>0</v>
+      </c>
+      <c r="E103" s="57">
+        <f t="shared" ref="E103:J103" si="27">E95/E102</f>
+        <v>0</v>
+      </c>
+      <c r="F103" s="57">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="G103" s="57">
+        <f t="shared" si="27"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H103" s="57">
+        <f t="shared" si="27"/>
+        <v>0.125</v>
+      </c>
+      <c r="I103" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="J103" s="57">
+        <f t="shared" si="27"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
+      <c r="K103" s="68"/>
+      <c r="L103" s="68"/>
+      <c r="M103" s="68"/>
+      <c r="P103" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q103" s="2">
+        <v>4</v>
+      </c>
+      <c r="R103" s="2">
+        <v>16</v>
+      </c>
+      <c r="S103" s="2">
+        <v>32</v>
+      </c>
+      <c r="T103" s="2">
+        <v>8</v>
+      </c>
+      <c r="U103" s="2">
+        <v>96</v>
+      </c>
+      <c r="V103" s="2">
+        <v>32</v>
+      </c>
+      <c r="W103" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A104" s="56"/>
+      <c r="B104" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C104" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D104" s="60">
+        <f>R54</f>
+        <v>7</v>
+      </c>
+      <c r="E104" s="60">
+        <f>S54</f>
+        <v>7</v>
+      </c>
+      <c r="F104" s="60">
+        <f>T54</f>
+        <v>3</v>
+      </c>
+      <c r="G104" s="60">
+        <f>U54</f>
+        <v>6</v>
+      </c>
+      <c r="H104" s="60">
+        <f>V54</f>
+        <v>4</v>
+      </c>
+      <c r="I104" s="60">
+        <f>W54</f>
+        <v>4</v>
+      </c>
+      <c r="J104" s="60">
+        <v>31</v>
+      </c>
+      <c r="K104" s="68">
+        <f>128*N49</f>
+        <v>64</v>
+      </c>
+      <c r="L104" s="68">
+        <f>(D104*K$37+E104*L$37+F104*M$37+G104*N$37+H104*O$37+I104*P$37+Q54*Q$37)/1000000</f>
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="M104" s="68">
+        <f t="shared" ref="M104" si="28">K104/L104</f>
+        <v>293.8516141177335</v>
+      </c>
+      <c r="P104" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q104" s="2">
+        <v>4</v>
+      </c>
+      <c r="R104" s="2">
+        <v>16</v>
+      </c>
+      <c r="S104" s="2">
+        <v>32</v>
+      </c>
+      <c r="T104" s="2">
+        <v>8</v>
+      </c>
+      <c r="U104" s="2">
+        <v>96</v>
+      </c>
+      <c r="V104" s="2">
+        <v>32</v>
+      </c>
+      <c r="W104" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A105" s="56"/>
+      <c r="B105" s="56"/>
+      <c r="C105" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D105" s="65">
+        <f>D95/D104</f>
+        <v>0</v>
+      </c>
+      <c r="E105" s="65">
+        <f t="shared" ref="E105:J105" si="29">E95/E104</f>
+        <v>0</v>
+      </c>
+      <c r="F105" s="65">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G105" s="65">
+        <f t="shared" si="29"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H105" s="65">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="I105" s="65">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="J105" s="65">
+        <f t="shared" si="29"/>
+        <v>0.38709677419354838</v>
+      </c>
+      <c r="K105" s="68"/>
+      <c r="L105" s="68"/>
+      <c r="M105" s="68"/>
+      <c r="P105" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q105" s="2">
+        <v>3</v>
+      </c>
+      <c r="R105" s="2">
+        <v>12</v>
+      </c>
+      <c r="S105" s="2">
+        <v>24</v>
+      </c>
+      <c r="T105" s="2">
+        <v>6</v>
+      </c>
+      <c r="U105" s="2">
+        <v>72</v>
+      </c>
+      <c r="V105" s="2">
+        <v>24</v>
+      </c>
+      <c r="W105" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A106" s="56" t="s">
+        <v>97</v>
+      </c>
+      <c r="B106" s="61"/>
+      <c r="C106" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D106" s="55">
+        <v>0</v>
+      </c>
+      <c r="E106" s="55">
+        <v>0</v>
+      </c>
+      <c r="F106" s="55">
+        <v>2</v>
+      </c>
+      <c r="G106" s="55">
+        <v>3</v>
+      </c>
+      <c r="H106" s="55">
+        <v>2</v>
+      </c>
+      <c r="I106" s="55">
+        <v>0</v>
+      </c>
+      <c r="J106" s="55">
+        <f>SUM(D106:I106)</f>
+        <v>7</v>
+      </c>
+      <c r="K106" s="59"/>
+      <c r="L106" s="59"/>
+      <c r="M106" s="59"/>
+      <c r="P106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q106" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R106" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S106" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T106" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U106" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V106" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W106" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A107" s="56"/>
+      <c r="B107" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C107" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D107" s="55">
+        <f>R129</f>
+        <v>12</v>
+      </c>
+      <c r="E107" s="55">
+        <f>S129</f>
+        <v>12</v>
+      </c>
+      <c r="F107" s="55">
+        <f>T129</f>
+        <v>12</v>
+      </c>
+      <c r="G107" s="55">
+        <f>U129</f>
+        <v>72</v>
+      </c>
+      <c r="H107" s="55">
+        <f>V129</f>
+        <v>84</v>
+      </c>
+      <c r="I107" s="55">
+        <f>W129</f>
+        <v>0</v>
+      </c>
+      <c r="J107" s="55">
+        <f>SUM(D107:I107)</f>
+        <v>192</v>
+      </c>
+      <c r="K107" s="69">
+        <f>64*N41</f>
+        <v>29.767441860465116</v>
+      </c>
+      <c r="L107" s="68">
+        <f>(D107*K$37+E107*L$37+F107*M$37+G107*N$37+H107*O$37+I107*P$37+Q129*Q$37)/1000000</f>
+        <v>1.3148219999999999</v>
+      </c>
+      <c r="M107" s="68">
+        <f>K107/L107</f>
+        <v>22.639902481450051</v>
+      </c>
+      <c r="P107" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q107" s="2">
+        <v>3</v>
+      </c>
+      <c r="R107" s="2">
+        <v>12</v>
+      </c>
+      <c r="S107" s="2">
+        <v>24</v>
+      </c>
+      <c r="T107" s="2">
+        <v>6</v>
+      </c>
+      <c r="U107" s="2">
+        <v>72</v>
+      </c>
+      <c r="V107" s="2">
+        <v>24</v>
+      </c>
+      <c r="W107" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A108" s="56"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D108" s="57">
+        <f>D106/D107</f>
+        <v>0</v>
+      </c>
+      <c r="E108" s="57">
+        <f>E106/E107</f>
+        <v>0</v>
+      </c>
+      <c r="F108" s="57">
+        <f>F106/F107</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G108" s="57">
+        <f>G106/G107</f>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="H108" s="57">
+        <f>H106/H107</f>
+        <v>2.3809523809523808E-2</v>
+      </c>
+      <c r="I108" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="J108" s="57">
+        <f>J106/J107</f>
+        <v>3.6458333333333336E-2</v>
+      </c>
+      <c r="K108" s="69"/>
+      <c r="L108" s="68"/>
+      <c r="M108" s="68"/>
+      <c r="P108" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q108" s="2">
+        <v>2</v>
+      </c>
+      <c r="R108" s="2">
+        <v>8</v>
+      </c>
+      <c r="S108" s="2">
+        <v>16</v>
+      </c>
+      <c r="T108" s="2">
+        <v>4</v>
+      </c>
+      <c r="U108" s="2">
+        <v>48</v>
+      </c>
+      <c r="V108" s="2">
+        <v>16</v>
+      </c>
+      <c r="W108" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A109" s="56"/>
+      <c r="B109" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C109" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D109" s="55">
+        <f>R166</f>
+        <v>12</v>
+      </c>
+      <c r="E109" s="55">
+        <f>S166</f>
+        <v>12</v>
+      </c>
+      <c r="F109" s="55">
+        <f>T166</f>
+        <v>12</v>
+      </c>
+      <c r="G109" s="55">
+        <f>U166</f>
+        <v>24</v>
+      </c>
+      <c r="H109" s="55">
+        <f>V166</f>
+        <v>24</v>
+      </c>
+      <c r="I109" s="55">
+        <f>W166</f>
+        <v>12</v>
+      </c>
+      <c r="J109" s="55">
+        <f>SUM(D109:I109)</f>
+        <v>96</v>
+      </c>
+      <c r="K109" s="69">
+        <f>64*N43</f>
+        <v>16.452442159383033</v>
+      </c>
+      <c r="L109" s="68">
+        <f>(D109*K$37+E109*L$37+F109*M$37+G109*N$37+H109*O$37+I109*P$37+Q166*Q$37)/1000000</f>
+        <v>0.62987700000000002</v>
+      </c>
+      <c r="M109" s="68">
+        <f>K109/L109</f>
+        <v>26.120087190646796</v>
+      </c>
+      <c r="P109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q109" s="2">
+        <v>4</v>
+      </c>
+      <c r="R109" s="2">
+        <v>16</v>
+      </c>
+      <c r="S109" s="2">
+        <v>32</v>
+      </c>
+      <c r="T109" s="2">
+        <v>8</v>
+      </c>
+      <c r="U109" s="2">
+        <v>96</v>
+      </c>
+      <c r="V109" s="2">
+        <v>32</v>
+      </c>
+      <c r="W109" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A110" s="56"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D110" s="63">
+        <f>D106/D109</f>
+        <v>0</v>
+      </c>
+      <c r="E110" s="63">
+        <f t="shared" ref="E110" si="30">E106/E109</f>
+        <v>0</v>
+      </c>
+      <c r="F110" s="63">
+        <f t="shared" ref="F110" si="31">F106/F109</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G110" s="63">
+        <f t="shared" ref="G110" si="32">G106/G109</f>
+        <v>0.125</v>
+      </c>
+      <c r="H110" s="63">
+        <f t="shared" ref="H110" si="33">H106/H109</f>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="I110" s="63">
+        <f t="shared" ref="I110" si="34">I106/I109</f>
+        <v>0</v>
+      </c>
+      <c r="J110" s="63">
+        <f t="shared" ref="J110" si="35">J106/J109</f>
+        <v>7.2916666666666671E-2</v>
+      </c>
+      <c r="K110" s="69"/>
+      <c r="L110" s="68"/>
+      <c r="M110" s="68"/>
+      <c r="P110" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q110" s="2">
+        <v>4</v>
+      </c>
+      <c r="R110" s="2">
+        <v>16</v>
+      </c>
+      <c r="S110" s="2">
+        <v>32</v>
+      </c>
+      <c r="T110" s="2">
+        <v>8</v>
+      </c>
+      <c r="U110" s="2">
+        <v>96</v>
+      </c>
+      <c r="V110" s="2">
+        <v>32</v>
+      </c>
+      <c r="W110" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A111" s="56"/>
+      <c r="B111" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C111" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D111" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E111" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F111" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G111" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H111" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I111" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="J111" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="K111" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="L111" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="M111" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="P111" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q111" s="2">
+        <v>4</v>
+      </c>
+      <c r="R111" s="2">
+        <v>16</v>
+      </c>
+      <c r="S111" s="2">
+        <v>32</v>
+      </c>
+      <c r="T111" s="2">
+        <v>8</v>
+      </c>
+      <c r="U111" s="2">
+        <v>96</v>
+      </c>
+      <c r="V111" s="2">
+        <v>32</v>
+      </c>
+      <c r="W111" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A112" s="56"/>
+      <c r="B112" s="56"/>
+      <c r="C112" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="J112" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="K112" s="69"/>
+      <c r="L112" s="69"/>
+      <c r="M112" s="69"/>
+      <c r="P112" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q112" s="2">
+        <v>6</v>
+      </c>
+      <c r="R112" s="2">
+        <v>24</v>
+      </c>
+      <c r="S112" s="2">
+        <v>48</v>
+      </c>
+      <c r="T112" s="2">
+        <v>12</v>
+      </c>
+      <c r="U112" s="2">
+        <v>144</v>
+      </c>
+      <c r="V112" s="2">
+        <v>48</v>
+      </c>
+      <c r="W112" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A113" s="56"/>
+      <c r="B113" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C113" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D113" s="55">
+        <f>R92</f>
+        <v>16</v>
+      </c>
+      <c r="E113" s="55">
+        <f>S92</f>
+        <v>32</v>
+      </c>
+      <c r="F113" s="55">
+        <f>T92</f>
+        <v>8</v>
+      </c>
+      <c r="G113" s="55">
+        <f>U92</f>
+        <v>96</v>
+      </c>
+      <c r="H113" s="55">
+        <f>V92</f>
+        <v>32</v>
+      </c>
+      <c r="I113" s="55">
+        <f>W102</f>
+        <v>0</v>
+      </c>
+      <c r="J113" s="55">
+        <f>SUM(D113:I113)</f>
+        <v>184</v>
+      </c>
+      <c r="K113" s="69">
+        <f>64*N47</f>
+        <v>32</v>
+      </c>
+      <c r="L113" s="68">
+        <f>(D113*K$37+E113*L$37+F113*M$37+G113*N$37+H113*O$37+I113*P$37+Q92*Q$37)/1000000</f>
+        <v>0.70278799999999997</v>
+      </c>
+      <c r="M113" s="68">
+        <f t="shared" ref="M113" si="36">K113/L113</f>
+        <v>45.532934540714983</v>
+      </c>
+      <c r="P113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q113" s="2">
+        <v>2</v>
+      </c>
+      <c r="R113" s="2">
+        <v>8</v>
+      </c>
+      <c r="S113" s="2">
+        <v>16</v>
+      </c>
+      <c r="T113" s="2">
+        <v>4</v>
+      </c>
+      <c r="U113" s="2">
+        <v>48</v>
+      </c>
+      <c r="V113" s="2">
+        <v>16</v>
+      </c>
+      <c r="W113" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A114" s="56"/>
+      <c r="B114" s="56"/>
+      <c r="C114" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D114" s="57">
+        <f>D106/D113</f>
+        <v>0</v>
+      </c>
+      <c r="E114" s="57">
+        <f t="shared" ref="E114" si="37">E106/E113</f>
+        <v>0</v>
+      </c>
+      <c r="F114" s="57">
+        <f t="shared" ref="F114" si="38">F106/F113</f>
+        <v>0.25</v>
+      </c>
+      <c r="G114" s="57">
+        <f t="shared" ref="G114" si="39">G106/G113</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="H114" s="57">
+        <f t="shared" ref="H114" si="40">H106/H113</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="I114" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="J114" s="57">
+        <f t="shared" ref="J114" si="41">J106/J113</f>
+        <v>3.8043478260869568E-2</v>
+      </c>
+      <c r="K114" s="69"/>
+      <c r="L114" s="68"/>
+      <c r="M114" s="68"/>
+      <c r="P114" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q114" s="2">
+        <v>2</v>
+      </c>
+      <c r="R114" s="2">
+        <v>8</v>
+      </c>
+      <c r="S114" s="2">
+        <v>16</v>
+      </c>
+      <c r="T114" s="2">
+        <v>4</v>
+      </c>
+      <c r="U114" s="2">
+        <v>48</v>
+      </c>
+      <c r="V114" s="2">
+        <v>16</v>
+      </c>
+      <c r="W114" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A115" s="56"/>
+      <c r="B115" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C115" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D115" s="60">
+        <f>R55</f>
+        <v>7</v>
+      </c>
+      <c r="E115" s="60">
+        <f>S55</f>
+        <v>7</v>
+      </c>
+      <c r="F115" s="60">
+        <f>T55</f>
+        <v>3</v>
+      </c>
+      <c r="G115" s="60">
+        <f>U55</f>
+        <v>6</v>
+      </c>
+      <c r="H115" s="60">
+        <f>V55</f>
+        <v>4</v>
+      </c>
+      <c r="I115" s="60">
+        <f>W55</f>
+        <v>4</v>
+      </c>
+      <c r="J115" s="60">
+        <v>31</v>
+      </c>
+      <c r="K115" s="69">
+        <f>64*N49</f>
+        <v>32</v>
+      </c>
+      <c r="L115" s="68">
+        <f>(D115*K$37+E115*L$37+F115*M$37+G115*N$37+H115*O$37+I115*P$37+Q55*Q$37)/1000000</f>
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="M115" s="68">
+        <f t="shared" ref="M115" si="42">K115/L115</f>
+        <v>146.92580705886675</v>
+      </c>
+      <c r="P115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q115" s="2">
+        <v>4</v>
+      </c>
+      <c r="R115" s="2">
+        <v>16</v>
+      </c>
+      <c r="S115" s="2">
+        <v>32</v>
+      </c>
+      <c r="T115" s="2">
+        <v>8</v>
+      </c>
+      <c r="U115" s="2">
+        <v>96</v>
+      </c>
+      <c r="V115" s="2">
+        <v>32</v>
+      </c>
+      <c r="W115" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A116" s="56"/>
+      <c r="B116" s="56"/>
+      <c r="C116" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D116" s="65">
+        <f>D106/D115</f>
+        <v>0</v>
+      </c>
+      <c r="E116" s="65">
+        <f t="shared" ref="E116:J116" si="43">E106/E115</f>
+        <v>0</v>
+      </c>
+      <c r="F116" s="65">
+        <f t="shared" si="43"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G116" s="65">
+        <f t="shared" si="43"/>
+        <v>0.5</v>
+      </c>
+      <c r="H116" s="65">
+        <f t="shared" si="43"/>
+        <v>0.5</v>
+      </c>
+      <c r="I116" s="65">
+        <f t="shared" si="43"/>
+        <v>0</v>
+      </c>
+      <c r="J116" s="65">
+        <f t="shared" si="43"/>
+        <v>0.22580645161290322</v>
+      </c>
+      <c r="K116" s="69"/>
+      <c r="L116" s="68"/>
+      <c r="M116" s="68"/>
+      <c r="P116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q116" s="2">
+        <v>9</v>
+      </c>
+      <c r="R116" s="2">
+        <v>36</v>
+      </c>
+      <c r="S116" s="2">
+        <v>72</v>
+      </c>
+      <c r="T116" s="2">
+        <v>18</v>
+      </c>
+      <c r="U116" s="2">
+        <v>216</v>
+      </c>
+      <c r="V116" s="2">
+        <v>72</v>
+      </c>
+      <c r="W116" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A117" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="B117" s="61"/>
+      <c r="C117" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="D117" s="55">
+        <v>0</v>
+      </c>
+      <c r="E117" s="55">
+        <v>3</v>
+      </c>
+      <c r="F117" s="55">
+        <v>0</v>
+      </c>
+      <c r="G117" s="55">
+        <v>2</v>
+      </c>
+      <c r="H117" s="55">
+        <v>1</v>
+      </c>
+      <c r="I117" s="55">
+        <v>0</v>
+      </c>
+      <c r="J117" s="55">
+        <f>SUM(D117:I117)</f>
+        <v>6</v>
+      </c>
+      <c r="K117" s="59"/>
+      <c r="L117" s="59"/>
+      <c r="M117" s="59"/>
+      <c r="P117" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q117" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R117" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S117" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T117" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U117" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V117" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W117" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A118" s="56"/>
+      <c r="B118" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C118" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D118" s="55">
+        <f>R130</f>
+        <v>16</v>
+      </c>
+      <c r="E118" s="55">
+        <f>S130</f>
+        <v>16</v>
+      </c>
+      <c r="F118" s="55">
+        <f>T130</f>
+        <v>16</v>
+      </c>
+      <c r="G118" s="55">
+        <f>U130</f>
+        <v>96</v>
+      </c>
+      <c r="H118" s="55">
+        <f>V130</f>
+        <v>112</v>
+      </c>
+      <c r="I118" s="55">
+        <f>W140</f>
+        <v>0</v>
+      </c>
+      <c r="J118" s="55">
+        <f>SUM(D118:I118)</f>
+        <v>256</v>
+      </c>
+      <c r="K118" s="69">
+        <f>128*N41</f>
+        <v>59.534883720930232</v>
+      </c>
+      <c r="L118" s="68">
+        <f>(D118*K$37+E118*L$37+F118*M$37+G118*N$37+H118*O$37+I118*P$37+Q130*Q$37)/1000000</f>
+        <v>1.753096</v>
+      </c>
+      <c r="M118" s="69">
+        <f>K118/L118</f>
+        <v>33.959853722175076</v>
+      </c>
+      <c r="P118" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q118" s="2">
+        <v>4</v>
+      </c>
+      <c r="R118" s="2">
+        <v>16</v>
+      </c>
+      <c r="S118" s="2">
+        <v>32</v>
+      </c>
+      <c r="T118" s="2">
+        <v>8</v>
+      </c>
+      <c r="U118" s="2">
+        <v>96</v>
+      </c>
+      <c r="V118" s="2">
+        <v>32</v>
+      </c>
+      <c r="W118" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A119" s="56"/>
+      <c r="B119" s="56"/>
+      <c r="C119" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D119" s="57">
+        <f>D117/D118</f>
+        <v>0</v>
+      </c>
+      <c r="E119" s="57">
+        <f>E117/E118</f>
+        <v>0.1875</v>
+      </c>
+      <c r="F119" s="57">
+        <f>F117/F118</f>
+        <v>0</v>
+      </c>
+      <c r="G119" s="57">
+        <f>G117/G118</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H119" s="57">
+        <f>H117/H118</f>
+        <v>8.9285714285714281E-3</v>
+      </c>
+      <c r="I119" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="J119" s="57">
+        <f>J117/J118</f>
+        <v>2.34375E-2</v>
+      </c>
+      <c r="K119" s="69"/>
+      <c r="L119" s="68"/>
+      <c r="M119" s="69"/>
+      <c r="P119" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R119" s="2">
+        <v>0</v>
+      </c>
+      <c r="S119" s="2">
+        <v>0</v>
+      </c>
+      <c r="T119" s="2">
+        <v>0</v>
+      </c>
+      <c r="U119" s="2">
+        <v>0</v>
+      </c>
+      <c r="V119" s="2">
+        <v>0</v>
+      </c>
+      <c r="W119" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A120" s="56"/>
+      <c r="B120" s="56" t="s">
+        <v>79</v>
+      </c>
+      <c r="C120" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D120" s="55">
+        <f>R167</f>
+        <v>48</v>
+      </c>
+      <c r="E120" s="55">
+        <f>S167</f>
+        <v>48</v>
+      </c>
+      <c r="F120" s="55">
+        <f>T167</f>
+        <v>48</v>
+      </c>
+      <c r="G120" s="55">
+        <f>U167</f>
+        <v>96</v>
+      </c>
+      <c r="H120" s="55">
+        <f>V167</f>
+        <v>96</v>
+      </c>
+      <c r="I120" s="55">
+        <f>W167</f>
+        <v>48</v>
+      </c>
+      <c r="J120" s="55">
+        <f>SUM(D120:I120)</f>
+        <v>384</v>
+      </c>
+      <c r="K120" s="69">
+        <f t="shared" ref="K120" si="44">128*N43</f>
+        <v>32.904884318766065</v>
+      </c>
+      <c r="L120" s="68">
+        <f>(D120*K$37+E120*L$37+F120*M$37+G120*N$37+H120*O$37+I120*P$37+Q167*Q$37)/1000000</f>
+        <v>2.5195080000000001</v>
+      </c>
+      <c r="M120" s="69">
+        <f t="shared" ref="M120" si="45">K120/L120</f>
+        <v>13.060043595323398</v>
+      </c>
+      <c r="P120" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q120" s="2">
+        <v>3</v>
+      </c>
+      <c r="R120" s="2">
+        <v>12</v>
+      </c>
+      <c r="S120" s="2">
+        <v>24</v>
+      </c>
+      <c r="T120" s="2">
+        <v>6</v>
+      </c>
+      <c r="U120" s="2">
+        <v>72</v>
+      </c>
+      <c r="V120" s="2">
+        <v>24</v>
+      </c>
+      <c r="W120" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A121" s="56"/>
+      <c r="B121" s="56"/>
+      <c r="C121" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D121" s="63">
+        <f>D117/D120</f>
+        <v>0</v>
+      </c>
+      <c r="E121" s="63">
+        <f t="shared" ref="E121" si="46">E117/E120</f>
+        <v>6.25E-2</v>
+      </c>
+      <c r="F121" s="63">
+        <f t="shared" ref="F121" si="47">F117/F120</f>
+        <v>0</v>
+      </c>
+      <c r="G121" s="63">
+        <f t="shared" ref="G121" si="48">G117/G120</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H121" s="63">
+        <f t="shared" ref="H121" si="49">H117/H120</f>
+        <v>1.0416666666666666E-2</v>
+      </c>
+      <c r="I121" s="63">
+        <f t="shared" ref="I121" si="50">I117/I120</f>
+        <v>0</v>
+      </c>
+      <c r="J121" s="63">
+        <f t="shared" ref="J121" si="51">J117/J120</f>
+        <v>1.5625E-2</v>
+      </c>
+      <c r="K121" s="69"/>
+      <c r="L121" s="68"/>
+      <c r="M121" s="69"/>
+      <c r="P121" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q121" s="2">
+        <v>4</v>
+      </c>
+      <c r="R121" s="2">
+        <v>16</v>
+      </c>
+      <c r="S121" s="2">
+        <v>32</v>
+      </c>
+      <c r="T121" s="2">
+        <v>8</v>
+      </c>
+      <c r="U121" s="2">
+        <v>96</v>
+      </c>
+      <c r="V121" s="2">
+        <v>32</v>
+      </c>
+      <c r="W121" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A122" s="56"/>
+      <c r="B122" s="56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C122" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D122" s="64" t="s">
+        <v>139</v>
+      </c>
+      <c r="E122" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F122" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G122" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H122" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I122" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="J122" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="K122" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="L122" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="M122" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="P122" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R122" s="2">
+        <v>0</v>
+      </c>
+      <c r="S122" s="2">
+        <v>0</v>
+      </c>
+      <c r="T122" s="2">
+        <v>0</v>
+      </c>
+      <c r="U122" s="2">
+        <v>0</v>
+      </c>
+      <c r="V122" s="2">
+        <v>0</v>
+      </c>
+      <c r="W122" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A123" s="56"/>
+      <c r="B123" s="56"/>
+      <c r="C123" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="E123" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="F123" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="G123" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="H123" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="I123" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="J123" s="64" t="s">
+        <v>138</v>
+      </c>
+      <c r="K123" s="69"/>
+      <c r="L123" s="69"/>
+      <c r="M123" s="69"/>
+      <c r="P123" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q123" s="2">
+        <v>8</v>
+      </c>
+      <c r="R123" s="2">
+        <v>32</v>
+      </c>
+      <c r="S123" s="2">
+        <v>64</v>
+      </c>
+      <c r="T123" s="2">
+        <v>16</v>
+      </c>
+      <c r="U123" s="2">
+        <v>192</v>
+      </c>
+      <c r="V123" s="2">
+        <v>64</v>
+      </c>
+      <c r="W123" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A124" s="56"/>
+      <c r="B124" s="56" t="s">
+        <v>83</v>
+      </c>
+      <c r="C124" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D124" s="55">
+        <f>R93</f>
+        <v>16</v>
+      </c>
+      <c r="E124" s="55">
+        <f>S93</f>
+        <v>32</v>
+      </c>
+      <c r="F124" s="55">
+        <f>T93</f>
+        <v>8</v>
+      </c>
+      <c r="G124" s="55">
+        <f>U93</f>
+        <v>96</v>
+      </c>
+      <c r="H124" s="55">
+        <f>V93</f>
+        <v>32</v>
+      </c>
+      <c r="I124" s="55">
+        <f>W113</f>
+        <v>0</v>
+      </c>
+      <c r="J124" s="55">
+        <f>SUM(D124:I124)</f>
+        <v>184</v>
+      </c>
+      <c r="K124" s="69">
+        <f t="shared" ref="K124" si="52">128*N47</f>
+        <v>64</v>
+      </c>
+      <c r="L124" s="68">
+        <f>(D124*K$37+E124*L$37+F124*M$37+G124*N$37+H124*O$37+I124*P$37+Q93*Q$37)/1000000</f>
+        <v>0.70278799999999997</v>
+      </c>
+      <c r="M124" s="69">
+        <f t="shared" ref="M124" si="53">K124/L124</f>
+        <v>91.065869081429966</v>
+      </c>
+      <c r="P124" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q124" s="2">
+        <v>4</v>
+      </c>
+      <c r="R124" s="2">
+        <v>16</v>
+      </c>
+      <c r="S124" s="2">
+        <v>32</v>
+      </c>
+      <c r="T124" s="2">
+        <v>8</v>
+      </c>
+      <c r="U124" s="2">
+        <v>96</v>
+      </c>
+      <c r="V124" s="2">
+        <v>32</v>
+      </c>
+      <c r="W124" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A125" s="56"/>
+      <c r="B125" s="56"/>
+      <c r="C125" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D125" s="57">
+        <f>D117/D124</f>
+        <v>0</v>
+      </c>
+      <c r="E125" s="57">
+        <f t="shared" ref="E125" si="54">E117/E124</f>
+        <v>9.375E-2</v>
+      </c>
+      <c r="F125" s="57">
+        <f t="shared" ref="F125" si="55">F117/F124</f>
+        <v>0</v>
+      </c>
+      <c r="G125" s="57">
+        <f t="shared" ref="G125" si="56">G117/G124</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+      <c r="H125" s="57">
+        <f t="shared" ref="H125" si="57">H117/H124</f>
+        <v>3.125E-2</v>
+      </c>
+      <c r="I125" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="J125" s="57">
+        <f t="shared" ref="J125" si="58">J117/J124</f>
+        <v>3.2608695652173912E-2</v>
+      </c>
+      <c r="K125" s="69"/>
+      <c r="L125" s="68"/>
+      <c r="M125" s="69"/>
+      <c r="P125" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q125" s="2">
+        <v>8</v>
+      </c>
+      <c r="R125" s="2">
+        <v>32</v>
+      </c>
+      <c r="S125" s="2">
+        <v>64</v>
+      </c>
+      <c r="T125" s="2">
+        <v>16</v>
+      </c>
+      <c r="U125" s="2">
+        <v>192</v>
+      </c>
+      <c r="V125" s="2">
+        <v>64</v>
+      </c>
+      <c r="W125" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A126" s="56"/>
+      <c r="B126" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D126" s="67">
+        <f>R56</f>
+        <v>7</v>
+      </c>
+      <c r="E126" s="67">
+        <f>S56</f>
+        <v>7</v>
+      </c>
+      <c r="F126" s="67">
+        <f>T56</f>
+        <v>3</v>
+      </c>
+      <c r="G126" s="67">
+        <f>U56</f>
+        <v>6</v>
+      </c>
+      <c r="H126" s="67">
+        <f>V56</f>
+        <v>4</v>
+      </c>
+      <c r="I126" s="67">
+        <f>W56</f>
+        <v>4</v>
+      </c>
+      <c r="J126" s="60">
+        <v>31</v>
+      </c>
+      <c r="K126" s="69">
+        <f t="shared" ref="K126" si="59">128*N49</f>
+        <v>64</v>
+      </c>
+      <c r="L126" s="68">
+        <f>(D126*K$37+E126*L$37+F126*M$37+G126*N$37+H126*O$37+I126*P$37+Q56*Q$37)/1000000</f>
+        <v>0.21779699999999999</v>
+      </c>
+      <c r="M126" s="69">
+        <f t="shared" ref="M126" si="60">K126/L126</f>
+        <v>293.8516141177335</v>
+      </c>
+      <c r="P126" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q126" s="2">
+        <v>8</v>
+      </c>
+      <c r="R126" s="2">
+        <v>32</v>
+      </c>
+      <c r="S126" s="2">
+        <v>64</v>
+      </c>
+      <c r="T126" s="2">
+        <v>16</v>
+      </c>
+      <c r="U126" s="2">
+        <v>192</v>
+      </c>
+      <c r="V126" s="2">
+        <v>64</v>
+      </c>
+      <c r="W126" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.15">
+      <c r="A127" s="56"/>
+      <c r="B127" s="56"/>
+      <c r="C127" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="D127" s="65">
+        <f>D117/D126</f>
+        <v>0</v>
+      </c>
+      <c r="E127" s="65">
+        <f t="shared" ref="E127" si="61">E117/E126</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="F127" s="65">
+        <f t="shared" ref="F127" si="62">F117/F126</f>
+        <v>0</v>
+      </c>
+      <c r="G127" s="65">
+        <f t="shared" ref="G127" si="63">G117/G126</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H127" s="65">
+        <f t="shared" ref="H127" si="64">H117/H126</f>
+        <v>0.25</v>
+      </c>
+      <c r="I127" s="65">
+        <f t="shared" ref="I127" si="65">I117/I126</f>
+        <v>0</v>
+      </c>
+      <c r="J127" s="65">
+        <f t="shared" ref="J127" si="66">J117/J126</f>
+        <v>0.19354838709677419</v>
+      </c>
+      <c r="K127" s="69"/>
+      <c r="L127" s="68"/>
+      <c r="M127" s="69"/>
+      <c r="P127" s="2">
+        <v>0</v>
+      </c>
+      <c r="R127" s="2">
+        <v>4</v>
+      </c>
+      <c r="S127" s="2">
+        <v>4</v>
+      </c>
+      <c r="T127" s="2">
+        <v>4</v>
+      </c>
+      <c r="U127" s="2">
+        <v>24</v>
+      </c>
+      <c r="V127" s="2">
+        <v>28</v>
+      </c>
+      <c r="W127" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="O128" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P128" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q128" s="2">
+        <v>2</v>
+      </c>
+      <c r="R128" s="2">
+        <v>8</v>
+      </c>
+      <c r="S128" s="2">
+        <v>8</v>
+      </c>
+      <c r="T128" s="2">
+        <v>8</v>
+      </c>
+      <c r="U128" s="2">
+        <v>48</v>
+      </c>
+      <c r="V128" s="2">
+        <v>56</v>
+      </c>
+      <c r="W128" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q129" s="2">
+        <v>3</v>
+      </c>
+      <c r="R129" s="2">
+        <v>12</v>
+      </c>
+      <c r="S129" s="2">
+        <v>12</v>
+      </c>
+      <c r="T129" s="2">
+        <v>12</v>
+      </c>
+      <c r="U129" s="2">
+        <v>72</v>
+      </c>
+      <c r="V129" s="2">
+        <v>84</v>
+      </c>
+      <c r="W129" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P130" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q130" s="2">
+        <v>4</v>
+      </c>
+      <c r="R130" s="2">
+        <v>16</v>
+      </c>
+      <c r="S130" s="2">
+        <v>16</v>
+      </c>
+      <c r="T130" s="2">
+        <v>16</v>
+      </c>
+      <c r="U130" s="2">
+        <v>96</v>
+      </c>
+      <c r="V130" s="2">
+        <v>112</v>
+      </c>
+      <c r="W130" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P131" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q131" s="2">
+        <v>5</v>
+      </c>
+      <c r="R131" s="2">
+        <v>20</v>
+      </c>
+      <c r="S131" s="2">
+        <v>20</v>
+      </c>
+      <c r="T131" s="2">
+        <v>20</v>
+      </c>
+      <c r="U131" s="2">
+        <v>120</v>
+      </c>
+      <c r="V131" s="2">
+        <v>140</v>
+      </c>
+      <c r="W131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P132" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>4</v>
+      </c>
+      <c r="R132" s="2">
+        <v>16</v>
+      </c>
+      <c r="S132" s="2">
+        <v>16</v>
+      </c>
+      <c r="T132" s="2">
+        <v>16</v>
+      </c>
+      <c r="U132" s="2">
+        <v>96</v>
+      </c>
+      <c r="V132" s="2">
+        <v>112</v>
+      </c>
+      <c r="W132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P133" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>5</v>
+      </c>
+      <c r="R133" s="2">
+        <v>20</v>
+      </c>
+      <c r="S133" s="2">
+        <v>20</v>
+      </c>
+      <c r="T133" s="2">
+        <v>20</v>
+      </c>
+      <c r="U133" s="2">
+        <v>120</v>
+      </c>
+      <c r="V133" s="2">
+        <v>140</v>
+      </c>
+      <c r="W133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P134" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>7</v>
+      </c>
+      <c r="R134" s="2">
+        <v>28</v>
+      </c>
+      <c r="S134" s="2">
+        <v>28</v>
+      </c>
+      <c r="T134" s="2">
+        <v>28</v>
+      </c>
+      <c r="U134" s="2">
+        <v>168</v>
+      </c>
+      <c r="V134" s="2">
+        <v>196</v>
+      </c>
+      <c r="W134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P135" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>3</v>
+      </c>
+      <c r="R135" s="2">
+        <v>12</v>
+      </c>
+      <c r="S135" s="2">
+        <v>12</v>
+      </c>
+      <c r="T135" s="2">
+        <v>12</v>
+      </c>
+      <c r="U135" s="2">
+        <v>72</v>
+      </c>
+      <c r="V135" s="2">
+        <v>84</v>
+      </c>
+      <c r="W135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P136" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>10</v>
+      </c>
+      <c r="R136" s="2">
+        <v>40</v>
+      </c>
+      <c r="S136" s="2">
+        <v>40</v>
+      </c>
+      <c r="T136" s="2">
+        <v>40</v>
+      </c>
+      <c r="U136" s="2">
+        <v>240</v>
+      </c>
+      <c r="V136" s="2">
+        <v>280</v>
+      </c>
+      <c r="W136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P137" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R137" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S137" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T137" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U137" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V137" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W137" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="138" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P138" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R138" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S138" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T138" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U138" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V138" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W138" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="139" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P139" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>4</v>
+      </c>
+      <c r="R139" s="2">
+        <v>16</v>
+      </c>
+      <c r="S139" s="2">
+        <v>16</v>
+      </c>
+      <c r="T139" s="2">
+        <v>16</v>
+      </c>
+      <c r="U139" s="2">
+        <v>96</v>
+      </c>
+      <c r="V139" s="2">
+        <v>112</v>
+      </c>
+      <c r="W139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P140" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>3</v>
+      </c>
+      <c r="R140" s="2">
+        <v>12</v>
+      </c>
+      <c r="S140" s="2">
+        <v>12</v>
+      </c>
+      <c r="T140" s="2">
+        <v>12</v>
+      </c>
+      <c r="U140" s="2">
+        <v>72</v>
+      </c>
+      <c r="V140" s="2">
+        <v>84</v>
+      </c>
+      <c r="W140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P141" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>4</v>
+      </c>
+      <c r="R141" s="2">
+        <v>16</v>
+      </c>
+      <c r="S141" s="2">
+        <v>16</v>
+      </c>
+      <c r="T141" s="2">
+        <v>16</v>
+      </c>
+      <c r="U141" s="2">
+        <v>96</v>
+      </c>
+      <c r="V141" s="2">
+        <v>112</v>
+      </c>
+      <c r="W141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P142" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>3</v>
+      </c>
+      <c r="R142" s="2">
+        <v>12</v>
+      </c>
+      <c r="S142" s="2">
+        <v>12</v>
+      </c>
+      <c r="T142" s="2">
+        <v>12</v>
+      </c>
+      <c r="U142" s="2">
+        <v>72</v>
+      </c>
+      <c r="V142" s="2">
+        <v>84</v>
+      </c>
+      <c r="W142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R143" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S143" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T143" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U143" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V143" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W143" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="144" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P144" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>3</v>
+      </c>
+      <c r="R144" s="2">
+        <v>12</v>
+      </c>
+      <c r="S144" s="2">
+        <v>12</v>
+      </c>
+      <c r="T144" s="2">
+        <v>12</v>
+      </c>
+      <c r="U144" s="2">
+        <v>72</v>
+      </c>
+      <c r="V144" s="2">
+        <v>84</v>
+      </c>
+      <c r="W144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P145" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>3</v>
+      </c>
+      <c r="R145" s="2">
+        <v>12</v>
+      </c>
+      <c r="S145" s="2">
+        <v>12</v>
+      </c>
+      <c r="T145" s="2">
+        <v>12</v>
+      </c>
+      <c r="U145" s="2">
+        <v>72</v>
+      </c>
+      <c r="V145" s="2">
+        <v>84</v>
+      </c>
+      <c r="W145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P146" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>3</v>
+      </c>
+      <c r="R146" s="2">
+        <v>12</v>
+      </c>
+      <c r="S146" s="2">
+        <v>12</v>
+      </c>
+      <c r="T146" s="2">
+        <v>12</v>
+      </c>
+      <c r="U146" s="2">
+        <v>72</v>
+      </c>
+      <c r="V146" s="2">
+        <v>84</v>
+      </c>
+      <c r="W146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P147" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q147" s="2">
+        <v>3</v>
+      </c>
+      <c r="R147" s="2">
+        <v>12</v>
+      </c>
+      <c r="S147" s="2">
+        <v>12</v>
+      </c>
+      <c r="T147" s="2">
+        <v>12</v>
+      </c>
+      <c r="U147" s="2">
+        <v>72</v>
+      </c>
+      <c r="V147" s="2">
+        <v>84</v>
+      </c>
+      <c r="W147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P148" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q148" s="2">
+        <v>2</v>
+      </c>
+      <c r="R148" s="2">
+        <v>8</v>
+      </c>
+      <c r="S148" s="2">
+        <v>8</v>
+      </c>
+      <c r="T148" s="2">
+        <v>8</v>
+      </c>
+      <c r="U148" s="2">
+        <v>48</v>
+      </c>
+      <c r="V148" s="2">
+        <v>56</v>
+      </c>
+      <c r="W148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P149" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>5</v>
+      </c>
+      <c r="R149" s="2">
+        <v>20</v>
+      </c>
+      <c r="S149" s="2">
+        <v>20</v>
+      </c>
+      <c r="T149" s="2">
+        <v>20</v>
+      </c>
+      <c r="U149" s="2">
+        <v>120</v>
+      </c>
+      <c r="V149" s="2">
+        <v>140</v>
+      </c>
+      <c r="W149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P150" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>2</v>
+      </c>
+      <c r="R150" s="2">
+        <v>8</v>
+      </c>
+      <c r="S150" s="2">
+        <v>8</v>
+      </c>
+      <c r="T150" s="2">
+        <v>8</v>
+      </c>
+      <c r="U150" s="2">
+        <v>48</v>
+      </c>
+      <c r="V150" s="2">
+        <v>56</v>
+      </c>
+      <c r="W150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P151" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>2</v>
+      </c>
+      <c r="R151" s="2">
+        <v>8</v>
+      </c>
+      <c r="S151" s="2">
+        <v>8</v>
+      </c>
+      <c r="T151" s="2">
+        <v>8</v>
+      </c>
+      <c r="U151" s="2">
+        <v>48</v>
+      </c>
+      <c r="V151" s="2">
+        <v>56</v>
+      </c>
+      <c r="W151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P152" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>3</v>
+      </c>
+      <c r="R152" s="2">
+        <v>12</v>
+      </c>
+      <c r="S152" s="2">
+        <v>12</v>
+      </c>
+      <c r="T152" s="2">
+        <v>12</v>
+      </c>
+      <c r="U152" s="2">
+        <v>72</v>
+      </c>
+      <c r="V152" s="2">
+        <v>84</v>
+      </c>
+      <c r="W152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P153" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>9</v>
+      </c>
+      <c r="R153" s="2">
+        <v>36</v>
+      </c>
+      <c r="S153" s="2">
+        <v>36</v>
+      </c>
+      <c r="T153" s="2">
+        <v>36</v>
+      </c>
+      <c r="U153" s="2">
+        <v>216</v>
+      </c>
+      <c r="V153" s="2">
+        <v>252</v>
+      </c>
+      <c r="W153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P154" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q154" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R154" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S154" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T154" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U154" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V154" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W154" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="155" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P155" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q155" s="2">
+        <v>2</v>
+      </c>
+      <c r="R155" s="2">
+        <v>8</v>
+      </c>
+      <c r="S155" s="2">
+        <v>8</v>
+      </c>
+      <c r="T155" s="2">
+        <v>8</v>
+      </c>
+      <c r="U155" s="2">
+        <v>48</v>
+      </c>
+      <c r="V155" s="2">
+        <v>56</v>
+      </c>
+      <c r="W155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P156" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R156" s="2">
+        <v>0</v>
+      </c>
+      <c r="S156" s="2">
+        <v>0</v>
+      </c>
+      <c r="T156" s="2">
+        <v>0</v>
+      </c>
+      <c r="U156" s="2">
+        <v>0</v>
+      </c>
+      <c r="V156" s="2">
+        <v>0</v>
+      </c>
+      <c r="W156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P157" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>3</v>
+      </c>
+      <c r="R157" s="2">
+        <v>12</v>
+      </c>
+      <c r="S157" s="2">
+        <v>12</v>
+      </c>
+      <c r="T157" s="2">
+        <v>12</v>
+      </c>
+      <c r="U157" s="2">
+        <v>72</v>
+      </c>
+      <c r="V157" s="2">
+        <v>84</v>
+      </c>
+      <c r="W157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P158" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q158" s="2">
+        <v>3</v>
+      </c>
+      <c r="R158" s="2">
+        <v>12</v>
+      </c>
+      <c r="S158" s="2">
+        <v>12</v>
+      </c>
+      <c r="T158" s="2">
+        <v>12</v>
+      </c>
+      <c r="U158" s="2">
+        <v>72</v>
+      </c>
+      <c r="V158" s="2">
+        <v>84</v>
+      </c>
+      <c r="W158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P159" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R159" s="2">
+        <v>0</v>
+      </c>
+      <c r="S159" s="2">
+        <v>0</v>
+      </c>
+      <c r="T159" s="2">
+        <v>0</v>
+      </c>
+      <c r="U159" s="2">
+        <v>0</v>
+      </c>
+      <c r="V159" s="2">
+        <v>0</v>
+      </c>
+      <c r="W159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P160" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q160" s="2">
+        <v>6</v>
+      </c>
+      <c r="R160" s="2">
+        <v>24</v>
+      </c>
+      <c r="S160" s="2">
+        <v>24</v>
+      </c>
+      <c r="T160" s="2">
+        <v>24</v>
+      </c>
+      <c r="U160" s="2">
+        <v>144</v>
+      </c>
+      <c r="V160" s="2">
+        <v>168</v>
+      </c>
+      <c r="W160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P161" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>2</v>
+      </c>
+      <c r="R161" s="2">
+        <v>8</v>
+      </c>
+      <c r="S161" s="2">
+        <v>8</v>
+      </c>
+      <c r="T161" s="2">
+        <v>8</v>
+      </c>
+      <c r="U161" s="2">
+        <v>48</v>
+      </c>
+      <c r="V161" s="2">
+        <v>56</v>
+      </c>
+      <c r="W161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P162" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>4</v>
+      </c>
+      <c r="R162" s="2">
+        <v>16</v>
+      </c>
+      <c r="S162" s="2">
+        <v>16</v>
+      </c>
+      <c r="T162" s="2">
+        <v>16</v>
+      </c>
+      <c r="U162" s="2">
+        <v>96</v>
+      </c>
+      <c r="V162" s="2">
+        <v>112</v>
+      </c>
+      <c r="W162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P163" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>4</v>
+      </c>
+      <c r="R163" s="2">
+        <v>16</v>
+      </c>
+      <c r="S163" s="2">
+        <v>16</v>
+      </c>
+      <c r="T163" s="2">
+        <v>16</v>
+      </c>
+      <c r="U163" s="2">
+        <v>96</v>
+      </c>
+      <c r="V163" s="2">
+        <v>112</v>
+      </c>
+      <c r="W163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P164" s="2">
+        <v>0</v>
+      </c>
+      <c r="R164" s="2">
+        <v>4</v>
+      </c>
+      <c r="S164" s="2">
+        <v>4</v>
+      </c>
+      <c r="T164" s="2">
+        <v>4</v>
+      </c>
+      <c r="U164" s="2">
+        <v>8</v>
+      </c>
+      <c r="V164" s="2">
+        <v>8</v>
+      </c>
+      <c r="W164" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="165" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="O165" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="2">
+        <v>2</v>
+      </c>
+      <c r="R165" s="2">
+        <v>8</v>
+      </c>
+      <c r="S165" s="2">
+        <v>8</v>
+      </c>
+      <c r="T165" s="2">
+        <v>8</v>
+      </c>
+      <c r="U165" s="2">
+        <v>16</v>
+      </c>
+      <c r="V165" s="2">
+        <v>16</v>
+      </c>
+      <c r="W165" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P166" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>3</v>
+      </c>
+      <c r="R166" s="2">
+        <v>12</v>
+      </c>
+      <c r="S166" s="2">
+        <v>12</v>
+      </c>
+      <c r="T166" s="2">
+        <v>12</v>
+      </c>
+      <c r="U166" s="2">
+        <v>24</v>
+      </c>
+      <c r="V166" s="2">
+        <v>24</v>
+      </c>
+      <c r="W166" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="167" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P167" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>12</v>
+      </c>
+      <c r="R167" s="2">
+        <v>48</v>
+      </c>
+      <c r="S167" s="2">
+        <v>48</v>
+      </c>
+      <c r="T167" s="2">
+        <v>48</v>
+      </c>
+      <c r="U167" s="2">
+        <v>96</v>
+      </c>
+      <c r="V167" s="2">
+        <v>96</v>
+      </c>
+      <c r="W167" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="168" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P168" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q168" s="2">
+        <v>6</v>
+      </c>
+      <c r="R168" s="2">
+        <v>24</v>
+      </c>
+      <c r="S168" s="2">
+        <v>24</v>
+      </c>
+      <c r="T168" s="2">
+        <v>24</v>
+      </c>
+      <c r="U168" s="2">
+        <v>48</v>
+      </c>
+      <c r="V168" s="2">
+        <v>48</v>
+      </c>
+      <c r="W168" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="169" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P169" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q169" s="2">
+        <v>4</v>
+      </c>
+      <c r="R169" s="2">
+        <v>16</v>
+      </c>
+      <c r="S169" s="2">
+        <v>16</v>
+      </c>
+      <c r="T169" s="2">
+        <v>16</v>
+      </c>
+      <c r="U169" s="2">
+        <v>32</v>
+      </c>
+      <c r="V169" s="2">
+        <v>32</v>
+      </c>
+      <c r="W169" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="170" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P170" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q170" s="2">
+        <v>5</v>
+      </c>
+      <c r="R170" s="2">
+        <v>20</v>
+      </c>
+      <c r="S170" s="2">
+        <v>20</v>
+      </c>
+      <c r="T170" s="2">
+        <v>20</v>
+      </c>
+      <c r="U170" s="2">
+        <v>40</v>
+      </c>
+      <c r="V170" s="2">
+        <v>40</v>
+      </c>
+      <c r="W170" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P171" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q171" s="2">
+        <v>9</v>
+      </c>
+      <c r="R171" s="2">
+        <v>36</v>
+      </c>
+      <c r="S171" s="2">
+        <v>36</v>
+      </c>
+      <c r="T171" s="2">
+        <v>36</v>
+      </c>
+      <c r="U171" s="2">
+        <v>72</v>
+      </c>
+      <c r="V171" s="2">
+        <v>72</v>
+      </c>
+      <c r="W171" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="172" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P172" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q172" s="2">
+        <v>3</v>
+      </c>
+      <c r="R172" s="2">
+        <v>12</v>
+      </c>
+      <c r="S172" s="2">
+        <v>12</v>
+      </c>
+      <c r="T172" s="2">
+        <v>12</v>
+      </c>
+      <c r="U172" s="2">
+        <v>24</v>
+      </c>
+      <c r="V172" s="2">
+        <v>24</v>
+      </c>
+      <c r="W172" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="173" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P173" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q173" s="2">
+        <v>11</v>
+      </c>
+      <c r="R173" s="2">
+        <v>44</v>
+      </c>
+      <c r="S173" s="2">
+        <v>44</v>
+      </c>
+      <c r="T173" s="2">
+        <v>44</v>
+      </c>
+      <c r="U173" s="2">
+        <v>88</v>
+      </c>
+      <c r="V173" s="2">
+        <v>88</v>
+      </c>
+      <c r="W173" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="174" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P174" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q174" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R174" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S174" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T174" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U174" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V174" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W174" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="175" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P175" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q175" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R175" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S175" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T175" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U175" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V175" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W175" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="176" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P176" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q176" s="2">
+        <v>6</v>
+      </c>
+      <c r="R176" s="2">
+        <v>24</v>
+      </c>
+      <c r="S176" s="2">
+        <v>24</v>
+      </c>
+      <c r="T176" s="2">
+        <v>24</v>
+      </c>
+      <c r="U176" s="2">
+        <v>48</v>
+      </c>
+      <c r="V176" s="2">
+        <v>48</v>
+      </c>
+      <c r="W176" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="177" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P177" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q177" s="2">
+        <v>3</v>
+      </c>
+      <c r="R177" s="2">
+        <v>12</v>
+      </c>
+      <c r="S177" s="2">
+        <v>12</v>
+      </c>
+      <c r="T177" s="2">
+        <v>12</v>
+      </c>
+      <c r="U177" s="2">
+        <v>24</v>
+      </c>
+      <c r="V177" s="2">
+        <v>24</v>
+      </c>
+      <c r="W177" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P178" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q178" s="2">
+        <v>4</v>
+      </c>
+      <c r="R178" s="2">
+        <v>16</v>
+      </c>
+      <c r="S178" s="2">
+        <v>16</v>
+      </c>
+      <c r="T178" s="2">
+        <v>16</v>
+      </c>
+      <c r="U178" s="2">
+        <v>32</v>
+      </c>
+      <c r="V178" s="2">
+        <v>32</v>
+      </c>
+      <c r="W178" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P179" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q179" s="2">
+        <v>3</v>
+      </c>
+      <c r="R179" s="2">
+        <v>12</v>
+      </c>
+      <c r="S179" s="2">
+        <v>12</v>
+      </c>
+      <c r="T179" s="2">
+        <v>12</v>
+      </c>
+      <c r="U179" s="2">
+        <v>24</v>
+      </c>
+      <c r="V179" s="2">
+        <v>24</v>
+      </c>
+      <c r="W179" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P180" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q180" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R180" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S180" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T180" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U180" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V180" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W180" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="181" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P181" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q181" s="2">
+        <v>3</v>
+      </c>
+      <c r="R181" s="2">
+        <v>12</v>
+      </c>
+      <c r="S181" s="2">
+        <v>12</v>
+      </c>
+      <c r="T181" s="2">
+        <v>12</v>
+      </c>
+      <c r="U181" s="2">
+        <v>24</v>
+      </c>
+      <c r="V181" s="2">
+        <v>24</v>
+      </c>
+      <c r="W181" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="182" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P182" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q182" s="2">
+        <v>4</v>
+      </c>
+      <c r="R182" s="2">
+        <v>16</v>
+      </c>
+      <c r="S182" s="2">
+        <v>16</v>
+      </c>
+      <c r="T182" s="2">
+        <v>16</v>
+      </c>
+      <c r="U182" s="2">
+        <v>32</v>
+      </c>
+      <c r="V182" s="2">
+        <v>32</v>
+      </c>
+      <c r="W182" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="183" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P183" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q183" s="2">
+        <v>3</v>
+      </c>
+      <c r="R183" s="2">
+        <v>12</v>
+      </c>
+      <c r="S183" s="2">
+        <v>12</v>
+      </c>
+      <c r="T183" s="2">
+        <v>12</v>
+      </c>
+      <c r="U183" s="2">
+        <v>24</v>
+      </c>
+      <c r="V183" s="2">
+        <v>24</v>
+      </c>
+      <c r="W183" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="184" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P184" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q184" s="2">
+        <v>3</v>
+      </c>
+      <c r="R184" s="2">
+        <v>12</v>
+      </c>
+      <c r="S184" s="2">
+        <v>12</v>
+      </c>
+      <c r="T184" s="2">
+        <v>12</v>
+      </c>
+      <c r="U184" s="2">
+        <v>24</v>
+      </c>
+      <c r="V184" s="2">
+        <v>24</v>
+      </c>
+      <c r="W184" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P185" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q185" s="2">
+        <v>2</v>
+      </c>
+      <c r="R185" s="2">
+        <v>8</v>
+      </c>
+      <c r="S185" s="2">
+        <v>8</v>
+      </c>
+      <c r="T185" s="2">
+        <v>8</v>
+      </c>
+      <c r="U185" s="2">
+        <v>16</v>
+      </c>
+      <c r="V185" s="2">
+        <v>16</v>
+      </c>
+      <c r="W185" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P186" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q186" s="2">
+        <v>5</v>
+      </c>
+      <c r="R186" s="2">
+        <v>20</v>
+      </c>
+      <c r="S186" s="2">
+        <v>20</v>
+      </c>
+      <c r="T186" s="2">
+        <v>20</v>
+      </c>
+      <c r="U186" s="2">
+        <v>40</v>
+      </c>
+      <c r="V186" s="2">
+        <v>40</v>
+      </c>
+      <c r="W186" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P187" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q187" s="2">
+        <v>2</v>
+      </c>
+      <c r="R187" s="2">
+        <v>8</v>
+      </c>
+      <c r="S187" s="2">
+        <v>8</v>
+      </c>
+      <c r="T187" s="2">
+        <v>8</v>
+      </c>
+      <c r="U187" s="2">
+        <v>16</v>
+      </c>
+      <c r="V187" s="2">
+        <v>16</v>
+      </c>
+      <c r="W187" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P188" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q188" s="2">
+        <v>2</v>
+      </c>
+      <c r="R188" s="2">
+        <v>8</v>
+      </c>
+      <c r="S188" s="2">
+        <v>8</v>
+      </c>
+      <c r="T188" s="2">
+        <v>8</v>
+      </c>
+      <c r="U188" s="2">
+        <v>16</v>
+      </c>
+      <c r="V188" s="2">
+        <v>16</v>
+      </c>
+      <c r="W188" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P189" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q189" s="2">
+        <v>3</v>
+      </c>
+      <c r="R189" s="2">
+        <v>12</v>
+      </c>
+      <c r="S189" s="2">
+        <v>12</v>
+      </c>
+      <c r="T189" s="2">
+        <v>12</v>
+      </c>
+      <c r="U189" s="2">
+        <v>24</v>
+      </c>
+      <c r="V189" s="2">
+        <v>24</v>
+      </c>
+      <c r="W189" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="190" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P190" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q190" s="2">
+        <v>9</v>
+      </c>
+      <c r="R190" s="2">
+        <v>36</v>
+      </c>
+      <c r="S190" s="2">
+        <v>36</v>
+      </c>
+      <c r="T190" s="2">
+        <v>36</v>
+      </c>
+      <c r="U190" s="2">
+        <v>72</v>
+      </c>
+      <c r="V190" s="2">
+        <v>72</v>
+      </c>
+      <c r="W190" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="191" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P191" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q191" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R191" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S191" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T191" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U191" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V191" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W191" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="192" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P192" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q192" s="2">
+        <v>2</v>
+      </c>
+      <c r="R192" s="2">
+        <v>8</v>
+      </c>
+      <c r="S192" s="2">
+        <v>8</v>
+      </c>
+      <c r="T192" s="2">
+        <v>8</v>
+      </c>
+      <c r="U192" s="2">
+        <v>16</v>
+      </c>
+      <c r="V192" s="2">
+        <v>16</v>
+      </c>
+      <c r="W192" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P193" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="R193" s="2">
+        <v>0</v>
+      </c>
+      <c r="S193" s="2">
+        <v>0</v>
+      </c>
+      <c r="T193" s="2">
+        <v>0</v>
+      </c>
+      <c r="U193" s="2">
+        <v>0</v>
+      </c>
+      <c r="V193" s="2">
+        <v>0</v>
+      </c>
+      <c r="W193" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P194" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q194" s="2">
+        <v>3</v>
+      </c>
+      <c r="R194" s="2">
+        <v>12</v>
+      </c>
+      <c r="S194" s="2">
+        <v>12</v>
+      </c>
+      <c r="T194" s="2">
+        <v>12</v>
+      </c>
+      <c r="U194" s="2">
+        <v>24</v>
+      </c>
+      <c r="V194" s="2">
+        <v>24</v>
+      </c>
+      <c r="W194" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="195" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P195" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q195" s="2">
+        <v>3</v>
+      </c>
+      <c r="R195" s="2">
+        <v>12</v>
+      </c>
+      <c r="S195" s="2">
+        <v>12</v>
+      </c>
+      <c r="T195" s="2">
+        <v>12</v>
+      </c>
+      <c r="U195" s="2">
+        <v>24</v>
+      </c>
+      <c r="V195" s="2">
+        <v>24</v>
+      </c>
+      <c r="W195" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P196" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="R196" s="2">
+        <v>0</v>
+      </c>
+      <c r="S196" s="2">
+        <v>0</v>
+      </c>
+      <c r="T196" s="2">
+        <v>0</v>
+      </c>
+      <c r="U196" s="2">
+        <v>0</v>
+      </c>
+      <c r="V196" s="2">
+        <v>0</v>
+      </c>
+      <c r="W196" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P197" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q197" s="2">
+        <v>6</v>
+      </c>
+      <c r="R197" s="2">
+        <v>24</v>
+      </c>
+      <c r="S197" s="2">
+        <v>24</v>
+      </c>
+      <c r="T197" s="2">
+        <v>24</v>
+      </c>
+      <c r="U197" s="2">
+        <v>48</v>
+      </c>
+      <c r="V197" s="2">
+        <v>48</v>
+      </c>
+      <c r="W197" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="198" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P198" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q198" s="2">
+        <v>2</v>
+      </c>
+      <c r="R198" s="2">
+        <v>8</v>
+      </c>
+      <c r="S198" s="2">
+        <v>8</v>
+      </c>
+      <c r="T198" s="2">
+        <v>8</v>
+      </c>
+      <c r="U198" s="2">
+        <v>16</v>
+      </c>
+      <c r="V198" s="2">
+        <v>16</v>
+      </c>
+      <c r="W198" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P199" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>4</v>
+      </c>
+      <c r="R199" s="2">
+        <v>16</v>
+      </c>
+      <c r="S199" s="2">
+        <v>16</v>
+      </c>
+      <c r="T199" s="2">
+        <v>16</v>
+      </c>
+      <c r="U199" s="2">
+        <v>32</v>
+      </c>
+      <c r="V199" s="2">
+        <v>32</v>
+      </c>
+      <c r="W199" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P200" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>4</v>
+      </c>
+      <c r="R200" s="2">
+        <v>16</v>
+      </c>
+      <c r="S200" s="2">
+        <v>16</v>
+      </c>
+      <c r="T200" s="2">
+        <v>16</v>
+      </c>
+      <c r="U200" s="2">
+        <v>32</v>
+      </c>
+      <c r="V200" s="2">
+        <v>32</v>
+      </c>
+      <c r="W200" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="201" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P201" s="2">
+        <v>0</v>
+      </c>
+      <c r="R201" s="2">
+        <v>32</v>
+      </c>
+      <c r="S201" s="2">
+        <v>48</v>
+      </c>
+      <c r="T201" s="2">
+        <v>16</v>
+      </c>
+      <c r="U201" s="2">
+        <v>48</v>
+      </c>
+      <c r="V201" s="2">
+        <v>8</v>
+      </c>
+      <c r="W201" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="202" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="O202" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>2</v>
+      </c>
+      <c r="R202" s="2">
+        <v>16</v>
+      </c>
+      <c r="S202" s="2">
+        <v>24</v>
+      </c>
+      <c r="T202" s="2">
+        <v>8</v>
+      </c>
+      <c r="U202" s="2">
+        <v>24</v>
+      </c>
+      <c r="V202" s="2">
+        <v>4</v>
+      </c>
+      <c r="W202" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P203" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="R203" s="2">
+        <v>0</v>
+      </c>
+      <c r="S203" s="2">
+        <v>0</v>
+      </c>
+      <c r="T203" s="2">
+        <v>0</v>
+      </c>
+      <c r="U203" s="2">
+        <v>0</v>
+      </c>
+      <c r="V203" s="2">
+        <v>0</v>
+      </c>
+      <c r="W203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P204" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R204" s="2">
+        <v>0</v>
+      </c>
+      <c r="S204" s="2">
+        <v>0</v>
+      </c>
+      <c r="T204" s="2">
+        <v>0</v>
+      </c>
+      <c r="U204" s="2">
+        <v>0</v>
+      </c>
+      <c r="V204" s="2">
+        <v>0</v>
+      </c>
+      <c r="W204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="R205" s="2">
+        <v>0</v>
+      </c>
+      <c r="S205" s="2">
+        <v>0</v>
+      </c>
+      <c r="T205" s="2">
+        <v>0</v>
+      </c>
+      <c r="U205" s="2">
+        <v>0</v>
+      </c>
+      <c r="V205" s="2">
+        <v>0</v>
+      </c>
+      <c r="W205" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P206" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q206" s="2">
+        <v>2</v>
+      </c>
+      <c r="R206" s="2">
+        <v>16</v>
+      </c>
+      <c r="S206" s="2">
+        <v>24</v>
+      </c>
+      <c r="T206" s="2">
+        <v>8</v>
+      </c>
+      <c r="U206" s="2">
+        <v>24</v>
+      </c>
+      <c r="V206" s="2">
+        <v>4</v>
+      </c>
+      <c r="W206" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P207" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R207" s="2">
+        <v>0</v>
+      </c>
+      <c r="S207" s="2">
+        <v>0</v>
+      </c>
+      <c r="T207" s="2">
+        <v>0</v>
+      </c>
+      <c r="U207" s="2">
+        <v>0</v>
+      </c>
+      <c r="V207" s="2">
+        <v>0</v>
+      </c>
+      <c r="W207" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="15:23" x14ac:dyDescent="0.15">
+      <c r="P208" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q208" s="2">
+        <v>4</v>
+      </c>
+      <c r="R208" s="2">
+        <v>32</v>
+      </c>
+      <c r="S208" s="2">
+        <v>48</v>
+      </c>
+      <c r="T208" s="2">
+        <v>16</v>
+      </c>
+      <c r="U208" s="2">
+        <v>48</v>
+      </c>
+      <c r="V208" s="2">
+        <v>8</v>
+      </c>
+      <c r="W208" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="209" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P209" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R209" s="2">
+        <v>0</v>
+      </c>
+      <c r="S209" s="2">
+        <v>0</v>
+      </c>
+      <c r="T209" s="2">
+        <v>0</v>
+      </c>
+      <c r="U209" s="2">
+        <v>0</v>
+      </c>
+      <c r="V209" s="2">
+        <v>0</v>
+      </c>
+      <c r="W209" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P210" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q210" s="2">
+        <v>7</v>
+      </c>
+      <c r="R210" s="2">
+        <v>56</v>
+      </c>
+      <c r="S210" s="2">
+        <v>84</v>
+      </c>
+      <c r="T210" s="2">
+        <v>28</v>
+      </c>
+      <c r="U210" s="2">
+        <v>84</v>
+      </c>
+      <c r="V210" s="2">
+        <v>14</v>
+      </c>
+      <c r="W210" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="211" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P211" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q211" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R211" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S211" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T211" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U211" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V211" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W211" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="212" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P212" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q212" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R212" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S212" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T212" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U212" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V212" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W212" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="213" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P213" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q213" s="2">
+        <v>3</v>
+      </c>
+      <c r="R213" s="2">
+        <v>24</v>
+      </c>
+      <c r="S213" s="2">
+        <v>36</v>
+      </c>
+      <c r="T213" s="2">
+        <v>12</v>
+      </c>
+      <c r="U213" s="2">
+        <v>36</v>
+      </c>
+      <c r="V213" s="2">
+        <v>6</v>
+      </c>
+      <c r="W213" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="214" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P214" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q214" s="2">
+        <v>1</v>
+      </c>
+      <c r="R214" s="2">
+        <v>8</v>
+      </c>
+      <c r="S214" s="2">
+        <v>12</v>
+      </c>
+      <c r="T214" s="2">
+        <v>4</v>
+      </c>
+      <c r="U214" s="2">
+        <v>12</v>
+      </c>
+      <c r="V214" s="2">
+        <v>2</v>
+      </c>
+      <c r="W214" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="215" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P215" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q215" s="2">
+        <v>4</v>
+      </c>
+      <c r="R215" s="2">
+        <v>32</v>
+      </c>
+      <c r="S215" s="2">
+        <v>48</v>
+      </c>
+      <c r="T215" s="2">
+        <v>16</v>
+      </c>
+      <c r="U215" s="2">
+        <v>48</v>
+      </c>
+      <c r="V215" s="2">
+        <v>8</v>
+      </c>
+      <c r="W215" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="216" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P216" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q216" s="2">
+        <v>3</v>
+      </c>
+      <c r="R216" s="2">
+        <v>24</v>
+      </c>
+      <c r="S216" s="2">
+        <v>36</v>
+      </c>
+      <c r="T216" s="2">
+        <v>12</v>
+      </c>
+      <c r="U216" s="2">
+        <v>36</v>
+      </c>
+      <c r="V216" s="2">
+        <v>6</v>
+      </c>
+      <c r="W216" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="217" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P217" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q217" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="R217" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S217" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T217" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U217" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V217" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W217" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="218" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P218" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Q218" s="2">
+        <v>2</v>
+      </c>
+      <c r="R218" s="2">
+        <v>16</v>
+      </c>
+      <c r="S218" s="2">
+        <v>24</v>
+      </c>
+      <c r="T218" s="2">
+        <v>8</v>
+      </c>
+      <c r="U218" s="2">
+        <v>24</v>
+      </c>
+      <c r="V218" s="2">
+        <v>4</v>
+      </c>
+      <c r="W218" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="219" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P219" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q219" s="2">
+        <v>3</v>
+      </c>
+      <c r="R219" s="2">
+        <v>24</v>
+      </c>
+      <c r="S219" s="2">
+        <v>36</v>
+      </c>
+      <c r="T219" s="2">
+        <v>12</v>
+      </c>
+      <c r="U219" s="2">
+        <v>36</v>
+      </c>
+      <c r="V219" s="2">
+        <v>6</v>
+      </c>
+      <c r="W219" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="220" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P220" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q220" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R220" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S220" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T220" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U220" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V220" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W220" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="221" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P221" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q221" s="2">
+        <v>2</v>
+      </c>
+      <c r="R221" s="2">
+        <v>16</v>
+      </c>
+      <c r="S221" s="2">
+        <v>24</v>
+      </c>
+      <c r="T221" s="2">
+        <v>8</v>
+      </c>
+      <c r="U221" s="2">
+        <v>24</v>
+      </c>
+      <c r="V221" s="2">
+        <v>4</v>
+      </c>
+      <c r="W221" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="222" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P222" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q222" s="2">
+        <v>1</v>
+      </c>
+      <c r="R222" s="2">
+        <v>8</v>
+      </c>
+      <c r="S222" s="2">
+        <v>12</v>
+      </c>
+      <c r="T222" s="2">
+        <v>4</v>
+      </c>
+      <c r="U222" s="2">
+        <v>12</v>
+      </c>
+      <c r="V222" s="2">
+        <v>2</v>
+      </c>
+      <c r="W222" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="223" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P223" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q223" s="2">
+        <v>3</v>
+      </c>
+      <c r="R223" s="2">
+        <v>24</v>
+      </c>
+      <c r="S223" s="2">
+        <v>36</v>
+      </c>
+      <c r="T223" s="2">
+        <v>12</v>
+      </c>
+      <c r="U223" s="2">
+        <v>36</v>
+      </c>
+      <c r="V223" s="2">
+        <v>6</v>
+      </c>
+      <c r="W223" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="224" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P224" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q224" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R224" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S224" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T224" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U224" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V224" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W224" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="225" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P225" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q225" s="2">
+        <v>2</v>
+      </c>
+      <c r="R225" s="2">
+        <v>16</v>
+      </c>
+      <c r="S225" s="2">
+        <v>24</v>
+      </c>
+      <c r="T225" s="2">
+        <v>8</v>
+      </c>
+      <c r="U225" s="2">
+        <v>24</v>
+      </c>
+      <c r="V225" s="2">
+        <v>4</v>
+      </c>
+      <c r="W225" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="226" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P226" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q226" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R226" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S226" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T226" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U226" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V226" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W226" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="227" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P227" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q227" s="2">
+        <v>4</v>
+      </c>
+      <c r="R227" s="2">
+        <v>32</v>
+      </c>
+      <c r="S227" s="2">
+        <v>48</v>
+      </c>
+      <c r="T227" s="2">
+        <v>16</v>
+      </c>
+      <c r="U227" s="2">
+        <v>48</v>
+      </c>
+      <c r="V227" s="2">
+        <v>8</v>
+      </c>
+      <c r="W227" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="228" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P228" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q228" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R228" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S228" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T228" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U228" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V228" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W228" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="229" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P229" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q229" s="2">
+        <v>1</v>
+      </c>
+      <c r="R229" s="2">
+        <v>8</v>
+      </c>
+      <c r="S229" s="2">
+        <v>12</v>
+      </c>
+      <c r="T229" s="2">
+        <v>4</v>
+      </c>
+      <c r="U229" s="2">
+        <v>12</v>
+      </c>
+      <c r="V229" s="2">
+        <v>2</v>
+      </c>
+      <c r="W229" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="230" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P230" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q230" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R230" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S230" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T230" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U230" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V230" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W230" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="231" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P231" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q231" s="2">
+        <v>2</v>
+      </c>
+      <c r="R231" s="2">
+        <v>16</v>
+      </c>
+      <c r="S231" s="2">
+        <v>24</v>
+      </c>
+      <c r="T231" s="2">
+        <v>8</v>
+      </c>
+      <c r="U231" s="2">
+        <v>24</v>
+      </c>
+      <c r="V231" s="2">
+        <v>4</v>
+      </c>
+      <c r="W231" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="232" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P232" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q232" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R232" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S232" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T232" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U232" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V232" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W232" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="233" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P233" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q233" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R233" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="S233" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="T233" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="U233" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="V233" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="W233" s="2" t="e">
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="234" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P234" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R234" s="2">
+        <v>0</v>
+      </c>
+      <c r="S234" s="2">
+        <v>0</v>
+      </c>
+      <c r="T234" s="2">
+        <v>0</v>
+      </c>
+      <c r="U234" s="2">
+        <v>0</v>
+      </c>
+      <c r="V234" s="2">
+        <v>0</v>
+      </c>
+      <c r="W234" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P235" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q235" s="2">
+        <v>1</v>
+      </c>
+      <c r="R235" s="2">
+        <v>8</v>
+      </c>
+      <c r="S235" s="2">
+        <v>12</v>
+      </c>
+      <c r="T235" s="2">
+        <v>4</v>
+      </c>
+      <c r="U235" s="2">
+        <v>12</v>
+      </c>
+      <c r="V235" s="2">
+        <v>2</v>
+      </c>
+      <c r="W235" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P236" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q236" s="2">
+        <v>2</v>
+      </c>
+      <c r="R236" s="2">
+        <v>16</v>
+      </c>
+      <c r="S236" s="2">
+        <v>24</v>
+      </c>
+      <c r="T236" s="2">
+        <v>8</v>
+      </c>
+      <c r="U236" s="2">
+        <v>24</v>
+      </c>
+      <c r="V236" s="2">
+        <v>4</v>
+      </c>
+      <c r="W236" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P237" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q237" s="2">
+        <v>2</v>
+      </c>
+      <c r="R237" s="2">
+        <v>16</v>
+      </c>
+      <c r="S237" s="2">
+        <v>24</v>
+      </c>
+      <c r="T237" s="2">
+        <v>8</v>
+      </c>
+      <c r="U237" s="2">
+        <v>24</v>
+      </c>
+      <c r="V237" s="2">
+        <v>4</v>
+      </c>
+      <c r="W237" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="16:23" x14ac:dyDescent="0.15">
+      <c r="P238" s="2">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="77">
+    <mergeCell ref="K118:K119"/>
+    <mergeCell ref="L118:L119"/>
+    <mergeCell ref="M118:M119"/>
+    <mergeCell ref="M120:M121"/>
+    <mergeCell ref="L120:L121"/>
+    <mergeCell ref="K120:K121"/>
+    <mergeCell ref="M124:M125"/>
+    <mergeCell ref="B126:B127"/>
+    <mergeCell ref="K126:K127"/>
+    <mergeCell ref="L126:L127"/>
+    <mergeCell ref="M126:M127"/>
+    <mergeCell ref="L124:L125"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="A117:A127"/>
+    <mergeCell ref="B118:B119"/>
+    <mergeCell ref="B120:B121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="L115:L116"/>
+    <mergeCell ref="M115:M116"/>
+    <mergeCell ref="M122:M123"/>
+    <mergeCell ref="L122:L123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="K111:K112"/>
+    <mergeCell ref="L111:L112"/>
+    <mergeCell ref="M111:M112"/>
+    <mergeCell ref="B113:B114"/>
+    <mergeCell ref="K113:K114"/>
+    <mergeCell ref="L113:L114"/>
+    <mergeCell ref="M113:M114"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="L107:L108"/>
+    <mergeCell ref="M107:M108"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="K109:K110"/>
+    <mergeCell ref="L109:L110"/>
+    <mergeCell ref="M109:M110"/>
+    <mergeCell ref="K102:K103"/>
+    <mergeCell ref="L102:L103"/>
+    <mergeCell ref="M102:M103"/>
+    <mergeCell ref="K104:K105"/>
+    <mergeCell ref="L104:L105"/>
+    <mergeCell ref="M104:M105"/>
+    <mergeCell ref="B104:B105"/>
+    <mergeCell ref="A95:A105"/>
+    <mergeCell ref="K93:M93"/>
+    <mergeCell ref="K94:K95"/>
+    <mergeCell ref="L94:L95"/>
+    <mergeCell ref="M94:M95"/>
+    <mergeCell ref="K96:K97"/>
+    <mergeCell ref="L96:L97"/>
+    <mergeCell ref="M96:M97"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="L98:L99"/>
+    <mergeCell ref="M98:M99"/>
+    <mergeCell ref="K100:K101"/>
+    <mergeCell ref="L100:L101"/>
+    <mergeCell ref="M100:M101"/>
+    <mergeCell ref="B96:B97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="B100:B101"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="C93:J93"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="A106:A116"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="B111:B112"/>
+    <mergeCell ref="B115:B116"/>
     <mergeCell ref="G39:G40"/>
     <mergeCell ref="H39:H40"/>
     <mergeCell ref="A2:A3"/>
@@ -2337,8 +8955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -2390,7 +9008,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="48" t="s">
         <v>21</v>
       </c>
       <c r="B2" s="5" t="s">
@@ -2421,7 +9039,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="42"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="5" t="s">
         <v>15</v>
       </c>
@@ -2450,7 +9068,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="42"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
@@ -2479,7 +9097,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="42"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
@@ -2508,7 +9126,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="42"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="5" t="s">
         <v>18</v>
       </c>
@@ -2537,7 +9155,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -2555,7 +9173,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -2586,7 +9204,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="42"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="5" t="s">
         <v>20</v>
       </c>
@@ -2615,7 +9233,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A10" s="41"/>
+      <c r="A10" s="49"/>
       <c r="B10" s="21" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2633,7 +9251,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A11" s="40" t="s">
+      <c r="A11" s="48" t="s">
         <v>24</v>
       </c>
       <c r="B11" s="5"/>
@@ -2666,7 +9284,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -2684,7 +9302,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="53" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5"/>
@@ -2717,7 +9335,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A14" s="43"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2800,7 +9418,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A2" s="40" t="str">
+      <c r="A2" s="48" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -2846,7 +9464,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A3" s="41"/>
+      <c r="A3" s="49"/>
       <c r="B3" s="29">
         <f>B2/$K2</f>
         <v>0.11901856614541291</v>
@@ -2886,7 +9504,7 @@
       <c r="K3" s="5"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="str">
+      <c r="A4" s="48" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -2932,7 +9550,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A5" s="41"/>
+      <c r="A5" s="49"/>
       <c r="B5" s="29">
         <f>B4/$K4</f>
         <v>6.2281216962292961E-2</v>
@@ -2972,7 +9590,7 @@
       <c r="K5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="str">
+      <c r="A6" s="48" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -3018,7 +9636,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A7" s="41"/>
+      <c r="A7" s="49"/>
       <c r="B7" s="29">
         <f>B6/$K6</f>
         <v>2.3777010922087911E-2</v>
@@ -3058,7 +9676,7 @@
       <c r="K7" s="5"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="str">
+      <c r="A8" s="53" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -3104,7 +9722,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="29">
         <f>B8/$K8</f>
         <v>4.7001462701121405E-2</v>
@@ -3161,7 +9779,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -3202,7 +9820,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="43" t="str">
+      <c r="A2" s="53" t="str">
         <f>架构比较!A2</f>
         <v>本文</v>
       </c>
@@ -3231,7 +9849,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="43"/>
+      <c r="A3" s="53"/>
       <c r="B3" s="5" t="str">
         <f>架构比较!B3</f>
         <v>T2</v>
@@ -3257,7 +9875,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="43"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="5" t="str">
         <f>架构比较!B4</f>
         <v>T3</v>
@@ -3283,7 +9901,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="43"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="5" t="str">
         <f>架构比较!B5</f>
         <v>T4</v>
@@ -3309,7 +9927,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="43"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="5" t="str">
         <f>架构比较!B6</f>
         <v>T5</v>
@@ -3335,7 +9953,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="43"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="5" t="str">
         <f>单元面积!J1</f>
         <v>CR32*8to16</v>
@@ -3360,7 +9978,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="43" t="str">
+      <c r="A8" s="53" t="str">
         <f>架构比较!A8</f>
         <v>TH</v>
       </c>
@@ -3388,7 +10006,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A9" s="43"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="5" t="str">
         <f>架构比较!B9</f>
         <v>T2</v>
@@ -3413,7 +10031,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A10" s="43"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -3438,7 +10056,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A11" s="40" t="str">
+      <c r="A11" s="48" t="str">
         <f>架构比较!A11</f>
         <v>Cyptoraptor</v>
       </c>
@@ -3465,7 +10083,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="41"/>
+      <c r="A12" s="49"/>
       <c r="B12" s="5" t="str">
         <f>单元面积!K1</f>
         <v>CR32*48to80</v>
@@ -3490,7 +10108,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A13" s="40" t="str">
+      <c r="A13" s="48" t="str">
         <f>架构比较!A13</f>
         <v>RCPA</v>
       </c>
@@ -3517,7 +10135,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A14" s="41"/>
+      <c r="A14" s="49"/>
       <c r="B14" s="5" t="s">
         <v>19</v>
       </c>
@@ -3556,8 +10174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
